--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -89,10 +89,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -143,21 +143,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -180,9 +173,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,70 +210,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,6 +238,43 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -305,7 +305,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +371,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,145 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,15 +490,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,30 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -561,6 +528,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,147 +566,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1304,8 +1304,8 @@
   <sheetPr/>
   <dimension ref="D8:M117"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -2936,8 +2936,8 @@
   <sheetPr/>
   <dimension ref="D8:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -2954,9 +2954,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="10" t="e">
+      <c r="J8" s="10">
         <f>I18/G18</f>
-        <v>#DIV/0!</v>
+        <v>2.8125</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:10">
@@ -3000,7 +3000,9 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>3</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="11">
         <f t="shared" ref="I12:I17" si="0">G12*H12</f>
@@ -3014,7 +3016,9 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="11">
         <f t="shared" si="0"/>
@@ -3028,7 +3032,9 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
@@ -3042,7 +3048,9 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>3</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="11">
         <f t="shared" si="0"/>
@@ -3056,11 +3064,15 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="7">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
       <c r="I16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J16" s="11"/>
     </row>
@@ -3070,7 +3082,9 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
@@ -3086,12 +3100,12 @@
       <c r="F18" s="4"/>
       <c r="G18" s="8">
         <f>SUM(G12:G17)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="6">
         <f>SUM(I12:I17)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J18" s="6"/>
     </row>
@@ -3335,7 +3349,6 @@
         <v>0</v>
       </c>
       <c r="J38" s="11"/>
-      <c r="K38"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
     </row>
@@ -4273,12 +4286,12 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1">
         <f>SUM(G101,G77,G89,G65,G53,G42,G30,G18,G113)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1">
         <f>SUM(I101,I89,I77,I65,I53,I42,I30,I18,I113)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J114" s="1"/>
     </row>
@@ -4297,9 +4310,9 @@
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
-      <c r="G116" s="13" t="e">
+      <c r="G116" s="13">
         <f>I114/G114</f>
-        <v>#DIV/0!</v>
+        <v>2.8125</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>

--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -89,10 +89,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -143,7 +143,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +166,29 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -165,22 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -190,44 +212,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,8 +240,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,17 +272,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -305,7 +305,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +359,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,103 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,19 +449,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +490,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,206 +590,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2937,7 +2937,7 @@
   <dimension ref="D8:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -2956,7 +2956,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="10">
         <f>I18/G18</f>
-        <v>2.8125</v>
+        <v>6.1125</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:10">
@@ -3035,10 +3035,12 @@
       <c r="G14" s="7">
         <v>3</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>17.6</v>
+      </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="J14" s="11"/>
     </row>
@@ -3105,7 +3107,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="6">
         <f>SUM(I12:I17)</f>
-        <v>45</v>
+        <v>97.8</v>
       </c>
       <c r="J18" s="6"/>
     </row>
@@ -4291,7 +4293,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1">
         <f>SUM(I101,I89,I77,I65,I53,I42,I30,I18,I113)</f>
-        <v>45</v>
+        <v>97.8</v>
       </c>
       <c r="J114" s="1"/>
     </row>
@@ -4312,7 +4314,7 @@
       <c r="F116" s="12"/>
       <c r="G116" s="13">
         <f>I114/G114</f>
-        <v>2.8125</v>
+        <v>6.1125</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>

--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -88,11 +88,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -143,7 +143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,13 +152,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,7 +166,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -181,7 +174,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,16 +188,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,16 +226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,16 +241,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,9 +271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,31 +317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +347,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +395,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,31 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,55 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,42 +512,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,7 +521,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,147 +555,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2956,7 +2956,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="10">
         <f>I18/G18</f>
-        <v>6.1125</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:10">
@@ -3003,10 +3003,12 @@
       <c r="G12" s="7">
         <v>3</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>17</v>
+      </c>
       <c r="I12" s="11">
         <f t="shared" ref="I12:I17" si="0">G12*H12</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J12" s="11"/>
     </row>
@@ -3019,10 +3021,12 @@
       <c r="G13" s="7">
         <v>2</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>17.8</v>
+      </c>
       <c r="I13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="J13" s="11"/>
     </row>
@@ -3087,10 +3091,12 @@
       <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>15.4</v>
+      </c>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="J17" s="11"/>
     </row>
@@ -3107,7 +3113,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="6">
         <f>SUM(I12:I17)</f>
-        <v>97.8</v>
+        <v>215.2</v>
       </c>
       <c r="J18" s="6"/>
     </row>
@@ -4293,7 +4299,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1">
         <f>SUM(I101,I89,I77,I65,I53,I42,I30,I18,I113)</f>
-        <v>97.8</v>
+        <v>215.2</v>
       </c>
       <c r="J114" s="1"/>
     </row>
@@ -4314,7 +4320,7 @@
       <c r="F116" s="12"/>
       <c r="G116" s="13">
         <f>I114/G114</f>
-        <v>6.1125</v>
+        <v>13.45</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>

--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -88,11 +88,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -143,6 +143,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -150,29 +157,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -185,6 +185,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,10 +220,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,14 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -241,38 +263,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,19 +305,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,6 +359,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,25 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +425,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,79 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +490,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,24 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -537,6 +539,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,158 +590,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,13 +765,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,7 +783,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1323,7 +1326,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="10">
+      <c r="J8" s="11">
         <f>I18/G18</f>
         <v>14.01875</v>
       </c>
@@ -1335,7 +1338,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="4:10">
       <c r="D10" s="2"/>
@@ -1375,11 +1378,11 @@
       <c r="H12" s="7">
         <v>12</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="12">
         <f>G12*H12</f>
         <v>36</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="4:10">
       <c r="D13" s="3" t="s">
@@ -1393,11 +1396,11 @@
       <c r="H13" s="7">
         <v>15</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="12">
         <f t="shared" ref="I12:I17" si="0">G13*H13</f>
         <v>30</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="3" t="s">
@@ -1411,11 +1414,11 @@
       <c r="H14" s="7">
         <v>14</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="4:10">
       <c r="D15" s="3" t="s">
@@ -1429,11 +1432,11 @@
       <c r="H15" s="7">
         <v>14.9</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="12">
         <f t="shared" si="0"/>
         <v>44.7</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="4:10">
       <c r="D16" s="3" t="s">
@@ -1447,11 +1450,11 @@
       <c r="H16" s="7">
         <v>14</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="3" t="s">
@@ -1465,11 +1468,11 @@
       <c r="H17" s="7">
         <v>14.8</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="12">
         <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
-      <c r="J17" s="11"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="4" t="s">
@@ -1477,11 +1480,11 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="6">
         <f>SUM(I12:I17)</f>
         <v>224.3</v>
@@ -1497,7 +1500,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="10" t="e">
+      <c r="J19" s="11" t="e">
         <f>I30/G30</f>
         <v>#DIV/0!</v>
       </c>
@@ -1509,7 +1512,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="1"/>
@@ -1518,7 +1521,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="5"/>
@@ -1550,73 +1553,73 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="11">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="12">
         <f>G24*H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="11"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="4:10">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="11">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="12">
         <f>G25*H25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="4:10">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="11">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="12">
         <f>G26*H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="11">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="12">
         <f>G27*H27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="11"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="11">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="12">
         <f>L38*M38</f>
         <v>0</v>
       </c>
-      <c r="J28" s="11"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="4:10">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="11">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="12">
         <f>G29*H29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="4:10">
       <c r="D30" s="6" t="s">
@@ -1624,11 +1627,11 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <f>SUM(G24:G29)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="6">
         <f>SUM(I24:I29)</f>
         <v>0</v>
@@ -1644,7 +1647,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="10" t="e">
+      <c r="J31" s="11" t="e">
         <f>I42/G42</f>
         <v>#DIV/0!</v>
       </c>
@@ -1656,7 +1659,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" s="1"/>
@@ -1665,7 +1668,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="10"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="4:10">
       <c r="D34" s="5"/>
@@ -1697,75 +1700,75 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="11">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="12">
         <f t="shared" ref="I36:I41" si="1">G36*H36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="11"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="4:10">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="11">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="11"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="4:13">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="11">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="11"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="J38" s="12"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" spans="4:10">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="11">
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="11"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="4:10">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="11">
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="11"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="4:10">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="11">
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J41" s="11"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="4:10">
       <c r="D42" s="6" t="s">
@@ -1773,11 +1776,11 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="8">
+      <c r="G42" s="9">
         <f>SUM(G36:G41)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="6">
         <f>SUM(I36:I41)</f>
         <v>0</v>
@@ -1793,7 +1796,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="10" t="e">
+      <c r="J43" s="11" t="e">
         <f>I53/G53</f>
         <v>#DIV/0!</v>
       </c>
@@ -1805,7 +1808,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="10"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="4:10">
       <c r="D45" s="5"/>
@@ -1837,73 +1840,73 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="11">
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="12">
         <f t="shared" ref="I47:I52" si="2">G47*H47</f>
         <v>0</v>
       </c>
-      <c r="J47" s="11"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="4:10">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="11">
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="4:10">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="11">
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="11"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="4:10">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="11">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J50" s="11"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="4:10">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="11">
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J51" s="11"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="4:10">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="11">
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J52" s="11"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" spans="4:10">
       <c r="D53" s="6" t="s">
@@ -1911,11 +1914,11 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <f>SUM(G47:G52)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="6">
         <f>SUM(I47:I52)</f>
         <v>0</v>
@@ -1931,7 +1934,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="10" t="e">
+      <c r="J54" s="11" t="e">
         <f>I65/G65</f>
         <v>#DIV/0!</v>
       </c>
@@ -1943,7 +1946,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="10"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="4:10">
       <c r="D56" s="1"/>
@@ -1952,7 +1955,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="10"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57" spans="4:10">
       <c r="D57" s="5"/>
@@ -1984,73 +1987,73 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="11">
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="12">
         <f t="shared" ref="I59:I64" si="3">G59*H59</f>
         <v>0</v>
       </c>
-      <c r="J59" s="11"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="4:10">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="11">
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="11"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="4:10">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="11">
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="11"/>
+      <c r="J61" s="12"/>
     </row>
     <row r="62" spans="4:10">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="11">
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J62" s="11"/>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="4:10">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="11">
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J63" s="11"/>
+      <c r="J63" s="12"/>
     </row>
     <row r="64" spans="4:10">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="11">
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J64" s="11"/>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" spans="4:10">
       <c r="D65" s="6" t="s">
@@ -2058,11 +2061,11 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="8">
+      <c r="G65" s="9">
         <f>SUM(G59:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="8"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="6">
         <f>SUM(I59:I64)</f>
         <v>0</v>
@@ -2078,7 +2081,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="10" t="e">
+      <c r="J66" s="11" t="e">
         <f>I77/G77</f>
         <v>#DIV/0!</v>
       </c>
@@ -2090,7 +2093,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="10"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68" spans="4:10">
       <c r="D68" s="1"/>
@@ -2099,7 +2102,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="10"/>
+      <c r="J68" s="11"/>
     </row>
     <row r="69" spans="4:10">
       <c r="D69" s="5"/>
@@ -2131,73 +2134,73 @@
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="11">
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="12">
         <f t="shared" ref="I71:I76" si="4">G71*H71</f>
         <v>0</v>
       </c>
-      <c r="J71" s="11"/>
+      <c r="J71" s="12"/>
     </row>
     <row r="72" spans="4:10">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="11">
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J72" s="11"/>
+      <c r="J72" s="12"/>
     </row>
     <row r="73" spans="4:10">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="11">
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J73" s="11"/>
+      <c r="J73" s="12"/>
     </row>
     <row r="74" spans="4:10">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="11">
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J74" s="11"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75" spans="4:10">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="11">
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J75" s="11"/>
+      <c r="J75" s="12"/>
     </row>
     <row r="76" spans="4:10">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="11">
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J76" s="11"/>
+      <c r="J76" s="12"/>
     </row>
     <row r="77" spans="4:10">
       <c r="D77" s="6" t="s">
@@ -2205,11 +2208,11 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="8">
+      <c r="G77" s="9">
         <f>SUM(G71:G76)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="8"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="6">
         <f>SUM(I71:I76)</f>
         <v>0</v>
@@ -2225,7 +2228,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="10" t="e">
+      <c r="J78" s="11" t="e">
         <f>I89/G89</f>
         <v>#DIV/0!</v>
       </c>
@@ -2237,7 +2240,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="10"/>
+      <c r="J79" s="11"/>
     </row>
     <row r="80" spans="4:10">
       <c r="D80" s="1"/>
@@ -2246,7 +2249,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="10"/>
+      <c r="J80" s="11"/>
     </row>
     <row r="81" spans="4:10">
       <c r="D81" s="5"/>
@@ -2278,73 +2281,73 @@
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="11">
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="12">
         <f t="shared" ref="I83:I88" si="5">G83*H83</f>
         <v>0</v>
       </c>
-      <c r="J83" s="11"/>
+      <c r="J83" s="12"/>
     </row>
     <row r="84" spans="4:10">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="11">
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="11"/>
+      <c r="J84" s="12"/>
     </row>
     <row r="85" spans="4:10">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="11">
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="11"/>
+      <c r="J85" s="12"/>
     </row>
     <row r="86" spans="4:10">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="11">
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J86" s="11"/>
+      <c r="J86" s="12"/>
     </row>
     <row r="87" spans="4:10">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="11">
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J87" s="11"/>
+      <c r="J87" s="12"/>
     </row>
     <row r="88" spans="4:10">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="11">
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J88" s="11"/>
+      <c r="J88" s="12"/>
     </row>
     <row r="89" spans="4:10">
       <c r="D89" s="6" t="s">
@@ -2352,11 +2355,11 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="8">
+      <c r="G89" s="9">
         <f>SUM(G83:G88)</f>
         <v>0</v>
       </c>
-      <c r="H89" s="8"/>
+      <c r="H89" s="9"/>
       <c r="I89" s="6">
         <f>SUM(I83:I88)</f>
         <v>0</v>
@@ -2372,7 +2375,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="10" t="e">
+      <c r="J90" s="11" t="e">
         <f>I101/G101</f>
         <v>#DIV/0!</v>
       </c>
@@ -2384,7 +2387,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="10"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92" spans="4:10">
       <c r="D92" s="1"/>
@@ -2393,7 +2396,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="10"/>
+      <c r="J92" s="11"/>
     </row>
     <row r="93" spans="4:10">
       <c r="D93" s="5"/>
@@ -2425,73 +2428,73 @@
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="11">
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="12">
         <f t="shared" ref="I95:I100" si="6">G95*H95</f>
         <v>0</v>
       </c>
-      <c r="J95" s="11"/>
+      <c r="J95" s="12"/>
     </row>
     <row r="96" spans="4:10">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="11">
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J96" s="11"/>
+      <c r="J96" s="12"/>
     </row>
     <row r="97" spans="4:10">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="11">
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J97" s="11"/>
+      <c r="J97" s="12"/>
     </row>
     <row r="98" spans="4:10">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="11">
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J98" s="11"/>
+      <c r="J98" s="12"/>
     </row>
     <row r="99" spans="4:10">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="11">
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J99" s="11"/>
+      <c r="J99" s="12"/>
     </row>
     <row r="100" spans="4:10">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="11">
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J100" s="11"/>
+      <c r="J100" s="12"/>
     </row>
     <row r="101" spans="4:10">
       <c r="D101" s="6" t="s">
@@ -2499,11 +2502,11 @@
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="8">
+      <c r="G101" s="9">
         <f>SUM(G95:G100)</f>
         <v>0</v>
       </c>
-      <c r="H101" s="8"/>
+      <c r="H101" s="9"/>
       <c r="I101" s="6">
         <f>SUM(I95:I100)</f>
         <v>0</v>
@@ -2519,7 +2522,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="10" t="e">
+      <c r="J102" s="11" t="e">
         <f>I113/G113</f>
         <v>#DIV/0!</v>
       </c>
@@ -2531,7 +2534,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="10"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="104" spans="4:10">
       <c r="D104" s="1"/>
@@ -2540,7 +2543,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="10"/>
+      <c r="J104" s="11"/>
     </row>
     <row r="105" spans="4:10">
       <c r="D105" s="5"/>
@@ -2572,73 +2575,73 @@
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="11">
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="12">
         <f t="shared" ref="I107:I112" si="7">G107*H107</f>
         <v>0</v>
       </c>
-      <c r="J107" s="11"/>
+      <c r="J107" s="12"/>
     </row>
     <row r="108" spans="4:10">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="11">
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="11"/>
+      <c r="J108" s="12"/>
     </row>
     <row r="109" spans="4:10">
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="11">
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="11"/>
+      <c r="J109" s="12"/>
     </row>
     <row r="110" spans="4:10">
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="11">
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J110" s="11"/>
+      <c r="J110" s="12"/>
     </row>
     <row r="111" spans="4:10">
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="11">
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J111" s="11"/>
+      <c r="J111" s="12"/>
     </row>
     <row r="112" spans="4:10">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="11">
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J112" s="11"/>
+      <c r="J112" s="12"/>
     </row>
     <row r="113" spans="4:10">
       <c r="D113" s="6" t="s">
@@ -2646,11 +2649,11 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="8">
+      <c r="G113" s="9">
         <f>SUM(G107:G112)</f>
         <v>0</v>
       </c>
-      <c r="H113" s="8"/>
+      <c r="H113" s="9"/>
       <c r="I113" s="6">
         <f>SUM(I107:I112)</f>
         <v>0</v>
@@ -2684,27 +2687,27 @@
       <c r="J115" s="1"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="12" t="s">
+      <c r="D116" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="13">
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="14">
         <f>I114/G114</f>
         <v>14.01875</v>
       </c>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -2937,7 +2940,7 @@
   <dimension ref="D8:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -2954,9 +2957,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="10">
+      <c r="J8" s="11">
         <f>I18/G18</f>
-        <v>13.45</v>
+        <v>16.590625</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:10">
@@ -2966,7 +2969,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" customFormat="1" spans="4:10">
       <c r="D10" s="2"/>
@@ -3003,14 +3006,14 @@
       <c r="G12" s="7">
         <v>3</v>
       </c>
-      <c r="H12" s="7">
-        <v>17</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="H12" s="8">
+        <v>16.8</v>
+      </c>
+      <c r="I12" s="12">
         <f t="shared" ref="I12:I17" si="0">G12*H12</f>
-        <v>51</v>
-      </c>
-      <c r="J12" s="11"/>
+        <v>50.4</v>
+      </c>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" customFormat="1" spans="4:10">
       <c r="D13" s="3" t="s">
@@ -3024,11 +3027,11 @@
       <c r="H13" s="7">
         <v>17.8</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="12">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" customFormat="1" spans="4:10">
       <c r="D14" s="3" t="s">
@@ -3042,11 +3045,11 @@
       <c r="H14" s="7">
         <v>17.6</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" customFormat="1" spans="4:10">
       <c r="D15" s="3" t="s">
@@ -3057,12 +3060,14 @@
       <c r="G15" s="7">
         <v>3</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="11">
+      <c r="H15" s="7">
+        <v>16.55</v>
+      </c>
+      <c r="I15" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="11"/>
+        <v>49.65</v>
+      </c>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" customFormat="1" spans="4:10">
       <c r="D16" s="3" t="s">
@@ -3076,11 +3081,11 @@
       <c r="H16" s="7">
         <v>15</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" customFormat="1" spans="4:10">
       <c r="D17" s="3" t="s">
@@ -3092,13 +3097,13 @@
         <v>2</v>
       </c>
       <c r="H17" s="7">
-        <v>15.4</v>
-      </c>
-      <c r="I17" s="11">
+        <v>16</v>
+      </c>
+      <c r="I17" s="12">
         <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-      <c r="J17" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" customFormat="1" spans="4:10">
       <c r="D18" s="4" t="s">
@@ -3106,14 +3111,14 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="6">
         <f>SUM(I12:I17)</f>
-        <v>215.2</v>
+        <v>265.45</v>
       </c>
       <c r="J18" s="6"/>
     </row>
@@ -3126,7 +3131,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="10" t="e">
+      <c r="J19" s="11" t="e">
         <f>I30/G30</f>
         <v>#DIV/0!</v>
       </c>
@@ -3138,7 +3143,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" customFormat="1" spans="4:10">
       <c r="D21" s="1"/>
@@ -3147,7 +3152,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" customFormat="1" spans="4:10">
       <c r="D22" s="5"/>
@@ -3179,73 +3184,73 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="11">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="12">
         <f t="shared" ref="I24:I27" si="1">G24*H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="11"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" customFormat="1" spans="4:10">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="11">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" customFormat="1" spans="4:10">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="11">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" customFormat="1" spans="4:10">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="11">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="11"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" customFormat="1" spans="4:10">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="11">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="12">
         <f>L38*M38</f>
         <v>0</v>
       </c>
-      <c r="J28" s="11"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" customFormat="1" spans="4:10">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="11">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="12">
         <f>G29*H29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" customFormat="1" spans="4:10">
       <c r="D30" s="6" t="s">
@@ -3253,11 +3258,11 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <f>SUM(G24:G29)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="6">
         <f>SUM(I24:I29)</f>
         <v>0</v>
@@ -3273,7 +3278,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="10" t="e">
+      <c r="J31" s="11" t="e">
         <f>I42/G42</f>
         <v>#DIV/0!</v>
       </c>
@@ -3285,7 +3290,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" customFormat="1" spans="4:10">
       <c r="D33" s="1"/>
@@ -3294,7 +3299,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="10"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" customFormat="1" spans="4:10">
       <c r="D34" s="5"/>
@@ -3326,75 +3331,75 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="11">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="12">
         <f t="shared" ref="I36:I41" si="2">G36*H36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="11"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" customFormat="1" spans="4:10">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="11">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="11"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" customFormat="1" spans="4:13">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="11">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J38" s="11"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="J38" s="12"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" customFormat="1" spans="4:10">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="11">
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="11"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" customFormat="1" spans="4:10">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="11">
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="11"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" customFormat="1" spans="4:10">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="11">
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="11"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" customFormat="1" spans="4:10">
       <c r="D42" s="6" t="s">
@@ -3402,11 +3407,11 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="8">
+      <c r="G42" s="9">
         <f>SUM(G36:G41)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="6">
         <f>SUM(I36:I41)</f>
         <v>0</v>
@@ -3422,7 +3427,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="10" t="e">
+      <c r="J43" s="11" t="e">
         <f>I53/G53</f>
         <v>#DIV/0!</v>
       </c>
@@ -3434,7 +3439,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="10"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" customFormat="1" spans="4:10">
       <c r="D45" s="5"/>
@@ -3466,73 +3471,73 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="11">
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="12">
         <f t="shared" ref="I47:I52" si="3">G47*H47</f>
         <v>0</v>
       </c>
-      <c r="J47" s="11"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" customFormat="1" spans="4:10">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="11">
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" customFormat="1" spans="4:10">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="11">
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J49" s="11"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" customFormat="1" spans="4:10">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="11">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J50" s="11"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" customFormat="1" spans="4:10">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="11">
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J51" s="11"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" customFormat="1" spans="4:10">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="11">
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J52" s="11"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" customFormat="1" spans="4:10">
       <c r="D53" s="6" t="s">
@@ -3540,11 +3545,11 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <f>SUM(G47:G52)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="6">
         <f>SUM(I47:I52)</f>
         <v>0</v>
@@ -3560,7 +3565,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="10" t="e">
+      <c r="J54" s="11" t="e">
         <f>I65/G65</f>
         <v>#DIV/0!</v>
       </c>
@@ -3572,7 +3577,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="10"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" customFormat="1" spans="4:10">
       <c r="D56" s="1"/>
@@ -3581,7 +3586,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="10"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57" customFormat="1" spans="4:10">
       <c r="D57" s="5"/>
@@ -3613,73 +3618,73 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="11">
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="12">
         <f t="shared" ref="I59:I64" si="4">G59*H59</f>
         <v>0</v>
       </c>
-      <c r="J59" s="11"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" customFormat="1" spans="4:10">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="11">
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J60" s="11"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" customFormat="1" spans="4:10">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="11">
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J61" s="11"/>
+      <c r="J61" s="12"/>
     </row>
     <row r="62" customFormat="1" spans="4:10">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="11">
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J62" s="11"/>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" customFormat="1" spans="4:10">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="11">
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J63" s="11"/>
+      <c r="J63" s="12"/>
     </row>
     <row r="64" customFormat="1" spans="4:10">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="11">
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J64" s="11"/>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" customFormat="1" spans="4:10">
       <c r="D65" s="6" t="s">
@@ -3687,11 +3692,11 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="8">
+      <c r="G65" s="9">
         <f>SUM(G59:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="8"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="6">
         <f>SUM(I59:I64)</f>
         <v>0</v>
@@ -3707,7 +3712,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="10" t="e">
+      <c r="J66" s="11" t="e">
         <f>I77/G77</f>
         <v>#DIV/0!</v>
       </c>
@@ -3719,7 +3724,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="10"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68" customFormat="1" spans="4:10">
       <c r="D68" s="1"/>
@@ -3728,7 +3733,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="10"/>
+      <c r="J68" s="11"/>
     </row>
     <row r="69" customFormat="1" spans="4:10">
       <c r="D69" s="5"/>
@@ -3760,73 +3765,73 @@
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="11">
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="12">
         <f t="shared" ref="I71:I76" si="5">G71*H71</f>
         <v>0</v>
       </c>
-      <c r="J71" s="11"/>
+      <c r="J71" s="12"/>
     </row>
     <row r="72" customFormat="1" spans="4:10">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="11">
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J72" s="11"/>
+      <c r="J72" s="12"/>
     </row>
     <row r="73" customFormat="1" spans="4:10">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="11">
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J73" s="11"/>
+      <c r="J73" s="12"/>
     </row>
     <row r="74" customFormat="1" spans="4:10">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="11">
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J74" s="11"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75" customFormat="1" spans="4:10">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="11">
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J75" s="11"/>
+      <c r="J75" s="12"/>
     </row>
     <row r="76" customFormat="1" spans="4:10">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="11">
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J76" s="11"/>
+      <c r="J76" s="12"/>
     </row>
     <row r="77" customFormat="1" spans="4:10">
       <c r="D77" s="6" t="s">
@@ -3834,11 +3839,11 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="8">
+      <c r="G77" s="9">
         <f>SUM(G71:G76)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="8"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="6">
         <f>SUM(I71:I76)</f>
         <v>0</v>
@@ -3854,7 +3859,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="10" t="e">
+      <c r="J78" s="11" t="e">
         <f>I89/G89</f>
         <v>#DIV/0!</v>
       </c>
@@ -3866,7 +3871,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="10"/>
+      <c r="J79" s="11"/>
     </row>
     <row r="80" customFormat="1" spans="4:10">
       <c r="D80" s="1"/>
@@ -3875,7 +3880,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="10"/>
+      <c r="J80" s="11"/>
     </row>
     <row r="81" customFormat="1" spans="4:10">
       <c r="D81" s="5"/>
@@ -3907,73 +3912,73 @@
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="11">
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="12">
         <f t="shared" ref="I83:I88" si="6">G83*H83</f>
         <v>0</v>
       </c>
-      <c r="J83" s="11"/>
+      <c r="J83" s="12"/>
     </row>
     <row r="84" customFormat="1" spans="4:10">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="11">
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J84" s="11"/>
+      <c r="J84" s="12"/>
     </row>
     <row r="85" customFormat="1" spans="4:10">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="11">
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J85" s="11"/>
+      <c r="J85" s="12"/>
     </row>
     <row r="86" customFormat="1" spans="4:10">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="11">
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J86" s="11"/>
+      <c r="J86" s="12"/>
     </row>
     <row r="87" customFormat="1" spans="4:10">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="11">
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J87" s="11"/>
+      <c r="J87" s="12"/>
     </row>
     <row r="88" customFormat="1" spans="4:10">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="11">
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J88" s="11"/>
+      <c r="J88" s="12"/>
     </row>
     <row r="89" customFormat="1" spans="4:10">
       <c r="D89" s="6" t="s">
@@ -3981,11 +3986,11 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="8">
+      <c r="G89" s="9">
         <f>SUM(G83:G88)</f>
         <v>0</v>
       </c>
-      <c r="H89" s="8"/>
+      <c r="H89" s="9"/>
       <c r="I89" s="6">
         <f>SUM(I83:I88)</f>
         <v>0</v>
@@ -4001,7 +4006,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="10" t="e">
+      <c r="J90" s="11" t="e">
         <f>I101/G101</f>
         <v>#DIV/0!</v>
       </c>
@@ -4013,7 +4018,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="10"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92" customFormat="1" spans="4:10">
       <c r="D92" s="1"/>
@@ -4022,7 +4027,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="10"/>
+      <c r="J92" s="11"/>
     </row>
     <row r="93" customFormat="1" spans="4:10">
       <c r="D93" s="5"/>
@@ -4054,73 +4059,73 @@
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="11">
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="12">
         <f t="shared" ref="I95:I100" si="7">G95*H95</f>
         <v>0</v>
       </c>
-      <c r="J95" s="11"/>
+      <c r="J95" s="12"/>
     </row>
     <row r="96" customFormat="1" spans="4:10">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="11">
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J96" s="11"/>
+      <c r="J96" s="12"/>
     </row>
     <row r="97" customFormat="1" spans="4:10">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="11">
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J97" s="11"/>
+      <c r="J97" s="12"/>
     </row>
     <row r="98" customFormat="1" spans="4:10">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="11">
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J98" s="11"/>
+      <c r="J98" s="12"/>
     </row>
     <row r="99" customFormat="1" spans="4:10">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="11">
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J99" s="11"/>
+      <c r="J99" s="12"/>
     </row>
     <row r="100" customFormat="1" spans="4:10">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="11">
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J100" s="11"/>
+      <c r="J100" s="12"/>
     </row>
     <row r="101" customFormat="1" spans="4:10">
       <c r="D101" s="6" t="s">
@@ -4128,11 +4133,11 @@
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="8">
+      <c r="G101" s="9">
         <f>SUM(G95:G100)</f>
         <v>0</v>
       </c>
-      <c r="H101" s="8"/>
+      <c r="H101" s="9"/>
       <c r="I101" s="6">
         <f>SUM(I95:I100)</f>
         <v>0</v>
@@ -4148,7 +4153,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="10" t="e">
+      <c r="J102" s="11" t="e">
         <f>I113/G113</f>
         <v>#DIV/0!</v>
       </c>
@@ -4160,7 +4165,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="10"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="104" customFormat="1" spans="4:10">
       <c r="D104" s="1"/>
@@ -4169,7 +4174,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="10"/>
+      <c r="J104" s="11"/>
     </row>
     <row r="105" customFormat="1" spans="4:10">
       <c r="D105" s="5"/>
@@ -4201,73 +4206,73 @@
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="11">
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="12">
         <f t="shared" ref="I107:I112" si="8">G107*H107</f>
         <v>0</v>
       </c>
-      <c r="J107" s="11"/>
+      <c r="J107" s="12"/>
     </row>
     <row r="108" customFormat="1" spans="4:10">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="11">
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J108" s="11"/>
+      <c r="J108" s="12"/>
     </row>
     <row r="109" customFormat="1" spans="4:10">
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="11">
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J109" s="11"/>
+      <c r="J109" s="12"/>
     </row>
     <row r="110" customFormat="1" spans="4:10">
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="11">
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J110" s="11"/>
+      <c r="J110" s="12"/>
     </row>
     <row r="111" customFormat="1" spans="4:10">
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="11">
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J111" s="11"/>
+      <c r="J111" s="12"/>
     </row>
     <row r="112" customFormat="1" spans="4:10">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="11">
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J112" s="11"/>
+      <c r="J112" s="12"/>
     </row>
     <row r="113" customFormat="1" spans="4:10">
       <c r="D113" s="6" t="s">
@@ -4275,11 +4280,11 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="8">
+      <c r="G113" s="9">
         <f>SUM(G107:G112)</f>
         <v>0</v>
       </c>
-      <c r="H113" s="8"/>
+      <c r="H113" s="9"/>
       <c r="I113" s="6">
         <f>SUM(I107:I112)</f>
         <v>0</v>
@@ -4299,7 +4304,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1">
         <f>SUM(I101,I89,I77,I65,I53,I42,I30,I18,I113)</f>
-        <v>215.2</v>
+        <v>265.45</v>
       </c>
       <c r="J114" s="1"/>
     </row>
@@ -4313,27 +4318,27 @@
       <c r="J115" s="1"/>
     </row>
     <row r="116" customFormat="1" spans="4:10">
-      <c r="D116" s="12" t="s">
+      <c r="D116" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="13">
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="14">
         <f>I114/G114</f>
-        <v>13.45</v>
-      </c>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
+        <v>16.590625</v>
+      </c>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
     </row>
     <row r="117" customFormat="1" spans="4:10">
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="179">

--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
   <si>
     <t>SEMESTER-1</t>
   </si>
@@ -53,7 +53,13 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>SEMESTER-2</t>
+    <t>DBMS</t>
+  </si>
+  <si>
+    <t>Computer Maintenance</t>
+  </si>
+  <si>
+    <t>Digital computer Fundamentals</t>
   </si>
   <si>
     <t>SEMESTER-3</t>
@@ -62,7 +68,7 @@
     <t>SEMESTER-4</t>
   </si>
   <si>
-    <t>SEMESTER-5</t>
+    <t>SEMESTER-5-SUMMER</t>
   </si>
   <si>
     <t>SEMESTER-6</t>
@@ -71,7 +77,7 @@
     <t>SEMESTER-7</t>
   </si>
   <si>
-    <t>SEMESTER-8</t>
+    <t>SEMESTER-8-SUMMER</t>
   </si>
   <si>
     <t>SEMESTER-9</t>
@@ -82,17 +88,20 @@
   <si>
     <t>TOTAL MARKS /20</t>
   </si>
+  <si>
+    <t>SEMESTER-2-SUMMER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -134,21 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -172,48 +166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,7 +182,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,7 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,13 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -271,8 +248,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +326,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,43 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,37 +458,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,55 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,13 +511,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,60 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -590,157 +588,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +767,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1307,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="D8:M117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:F40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -1326,7 +1338,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="11">
+      <c r="J8" s="12">
         <f>I18/G18</f>
         <v>14.01875</v>
       </c>
@@ -1338,7 +1350,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="4:10">
       <c r="D10" s="2"/>
@@ -1372,17 +1384,17 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>3</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>12</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="13">
         <f>G12*H12</f>
         <v>36</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="4:10">
       <c r="D13" s="3" t="s">
@@ -1390,17 +1402,17 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>15</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="13">
         <f t="shared" ref="I12:I17" si="0">G13*H13</f>
         <v>30</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="3" t="s">
@@ -1408,17 +1420,17 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>3</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>14</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="4:10">
       <c r="D15" s="3" t="s">
@@ -1426,17 +1438,17 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>3</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>14.9</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>44.7</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="4:10">
       <c r="D16" s="3" t="s">
@@ -1444,17 +1456,17 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>3</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>14</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="3" t="s">
@@ -1462,17 +1474,17 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>2</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>14.8</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="4" t="s">
@@ -1480,29 +1492,30 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6">
+      <c r="H18" s="10"/>
+      <c r="I18" s="7">
         <f>SUM(I12:I17)</f>
         <v>224.3</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="4:10">
-      <c r="D19" s="1" t="s">
-        <v>12</v>
+      <c r="D19" s="1" t="str">
+        <f>'FINAL RESULT'!D19</f>
+        <v>SEMESTER-2-SUMMER</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="11" t="e">
+      <c r="J19" s="12">
         <f>I30/G30</f>
-        <v>#DIV/0!</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="20" spans="4:10">
@@ -1512,7 +1525,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="1"/>
@@ -1521,7 +1534,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="5"/>
@@ -1550,104 +1563,122 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="12">
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="11">
+        <v>3</v>
+      </c>
+      <c r="H24" s="11">
+        <v>17</v>
+      </c>
+      <c r="I24" s="13">
         <f>G24*H24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="12">
+      <c r="D25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="11">
+        <v>3</v>
+      </c>
+      <c r="H25" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="I25" s="13">
         <f>G25*H25</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="12"/>
+        <v>49.5</v>
+      </c>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="12">
+      <c r="D26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="11">
+        <v>3</v>
+      </c>
+      <c r="H26" s="11">
+        <v>16</v>
+      </c>
+      <c r="I26" s="13">
         <f>G26*H26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="12">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13">
         <f>G27*H27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="4:10">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="12">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="13">
         <f>L38*M38</f>
         <v>0</v>
       </c>
-      <c r="J28" s="12"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="12">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="13">
         <f>G29*H29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="9">
+      <c r="G30" s="10">
         <f>SUM(G24:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="6">
+        <v>9</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="7">
         <f>SUM(I24:I29)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="6"/>
+        <v>148.5</v>
+      </c>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" customHeight="1" spans="4:10">
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="11" t="e">
+      <c r="J31" s="12" t="e">
         <f>I42/G42</f>
         <v>#DIV/0!</v>
       </c>
@@ -1659,7 +1690,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="11"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" s="1"/>
@@ -1668,7 +1699,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="11"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="4:10">
       <c r="D34" s="5"/>
@@ -1697,106 +1728,106 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="4:10">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="12">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="13">
         <f t="shared" ref="I36:I41" si="1">G36*H36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="12"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="4:10">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="12">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="12"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="4:13">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="12">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="J38" s="13"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
     </row>
     <row r="39" spans="4:10">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="12">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="12"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="4:10">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="12">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="12"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" spans="4:10">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="12">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J41" s="12"/>
+      <c r="J41" s="13"/>
     </row>
     <row r="42" spans="4:10">
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="9">
+      <c r="G42" s="10">
         <f>SUM(G36:G41)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="6">
+      <c r="H42" s="10"/>
+      <c r="I42" s="7">
         <f>SUM(I36:I41)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="6"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43" customHeight="1" spans="4:10">
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="11" t="e">
+      <c r="J43" s="12" t="e">
         <f>I53/G53</f>
         <v>#DIV/0!</v>
       </c>
@@ -1808,7 +1839,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="11"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="4:10">
       <c r="D45" s="5"/>
@@ -1837,104 +1868,104 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="4:10">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="12">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="13">
         <f t="shared" ref="I47:I52" si="2">G47*H47</f>
         <v>0</v>
       </c>
-      <c r="J47" s="12"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="4:10">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="12">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="12"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="4:10">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="12">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="12"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="12">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="4:10">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="12">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J51" s="12"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="12">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J52" s="12"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="9">
+      <c r="G53" s="10">
         <f>SUM(G47:G52)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="6">
+      <c r="H53" s="10"/>
+      <c r="I53" s="7">
         <f>SUM(I47:I52)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="6"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" customHeight="1" spans="4:10">
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="11" t="e">
+      <c r="J54" s="12" t="e">
         <f>I65/G65</f>
         <v>#DIV/0!</v>
       </c>
@@ -1946,7 +1977,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="11"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="4:10">
       <c r="D56" s="1"/>
@@ -1955,7 +1986,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="11"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="4:10">
       <c r="D57" s="5"/>
@@ -1984,104 +2015,104 @@
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="12">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="13">
         <f t="shared" ref="I59:I64" si="3">G59*H59</f>
         <v>0</v>
       </c>
-      <c r="J59" s="12"/>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="12">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="12"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="12">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="12"/>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="12">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J62" s="12"/>
+      <c r="J62" s="13"/>
     </row>
     <row r="63" spans="4:10">
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="12">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J63" s="12"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="12">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J64" s="12"/>
+      <c r="J64" s="13"/>
     </row>
     <row r="65" spans="4:10">
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="6"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="9">
+      <c r="G65" s="10">
         <f>SUM(G59:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="6">
+      <c r="H65" s="10"/>
+      <c r="I65" s="7">
         <f>SUM(I59:I64)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="6"/>
+      <c r="J65" s="7"/>
     </row>
     <row r="66" customHeight="1" spans="4:10">
       <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="11" t="e">
+      <c r="J66" s="12" t="e">
         <f>I77/G77</f>
         <v>#DIV/0!</v>
       </c>
@@ -2093,7 +2124,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="11"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68" spans="4:10">
       <c r="D68" s="1"/>
@@ -2102,7 +2133,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="11"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69" spans="4:10">
       <c r="D69" s="5"/>
@@ -2131,104 +2162,104 @@
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="12">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="13">
         <f t="shared" ref="I71:I76" si="4">G71*H71</f>
         <v>0</v>
       </c>
-      <c r="J71" s="12"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="12">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J72" s="12"/>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="12">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J73" s="12"/>
+      <c r="J73" s="13"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="12">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J74" s="12"/>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" spans="4:10">
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="12">
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J75" s="12"/>
+      <c r="J75" s="13"/>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="12">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J76" s="12"/>
+      <c r="J76" s="13"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="6"/>
+      <c r="E77" s="7"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="9">
+      <c r="G77" s="10">
         <f>SUM(G71:G76)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="6">
+      <c r="H77" s="10"/>
+      <c r="I77" s="7">
         <f>SUM(I71:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="6"/>
+      <c r="J77" s="7"/>
     </row>
     <row r="78" customHeight="1" spans="4:10">
       <c r="D78" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="11" t="e">
+      <c r="J78" s="12" t="e">
         <f>I89/G89</f>
         <v>#DIV/0!</v>
       </c>
@@ -2240,7 +2271,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="11"/>
+      <c r="J79" s="12"/>
     </row>
     <row r="80" spans="4:10">
       <c r="D80" s="1"/>
@@ -2249,7 +2280,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="11"/>
+      <c r="J80" s="12"/>
     </row>
     <row r="81" spans="4:10">
       <c r="D81" s="5"/>
@@ -2278,104 +2309,104 @@
       <c r="J82" s="1"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="12">
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="13">
         <f t="shared" ref="I83:I88" si="5">G83*H83</f>
         <v>0</v>
       </c>
-      <c r="J83" s="12"/>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="12">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="12"/>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="12">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="12"/>
+      <c r="J85" s="13"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="12">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J86" s="12"/>
+      <c r="J86" s="13"/>
     </row>
     <row r="87" spans="4:10">
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="12">
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J87" s="12"/>
+      <c r="J87" s="13"/>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="12">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J88" s="12"/>
+      <c r="J88" s="13"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="6"/>
+      <c r="E89" s="7"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="9">
+      <c r="G89" s="10">
         <f>SUM(G83:G88)</f>
         <v>0</v>
       </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="6">
+      <c r="H89" s="10"/>
+      <c r="I89" s="7">
         <f>SUM(I83:I88)</f>
         <v>0</v>
       </c>
-      <c r="J89" s="6"/>
+      <c r="J89" s="7"/>
     </row>
     <row r="90" customHeight="1" spans="4:10">
       <c r="D90" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="11" t="e">
+      <c r="J90" s="12" t="e">
         <f>I101/G101</f>
         <v>#DIV/0!</v>
       </c>
@@ -2387,7 +2418,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="11"/>
+      <c r="J91" s="12"/>
     </row>
     <row r="92" spans="4:10">
       <c r="D92" s="1"/>
@@ -2396,7 +2427,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="11"/>
+      <c r="J92" s="12"/>
     </row>
     <row r="93" spans="4:10">
       <c r="D93" s="5"/>
@@ -2425,104 +2456,104 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="12">
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="13">
         <f t="shared" ref="I95:I100" si="6">G95*H95</f>
         <v>0</v>
       </c>
-      <c r="J95" s="12"/>
+      <c r="J95" s="13"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="12">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J96" s="12"/>
+      <c r="J96" s="13"/>
     </row>
     <row r="97" spans="4:10">
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="12">
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J97" s="12"/>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" spans="4:10">
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="12">
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J98" s="12"/>
+      <c r="J98" s="13"/>
     </row>
     <row r="99" spans="4:10">
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="12">
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J99" s="12"/>
+      <c r="J99" s="13"/>
     </row>
     <row r="100" spans="4:10">
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="12">
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J100" s="12"/>
+      <c r="J100" s="13"/>
     </row>
     <row r="101" spans="4:10">
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="6"/>
+      <c r="E101" s="7"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="9">
+      <c r="G101" s="10">
         <f>SUM(G95:G100)</f>
         <v>0</v>
       </c>
-      <c r="H101" s="9"/>
-      <c r="I101" s="6">
+      <c r="H101" s="10"/>
+      <c r="I101" s="7">
         <f>SUM(I95:I100)</f>
         <v>0</v>
       </c>
-      <c r="J101" s="6"/>
+      <c r="J101" s="7"/>
     </row>
     <row r="102" spans="4:10">
       <c r="D102" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="11" t="e">
+      <c r="J102" s="12" t="e">
         <f>I113/G113</f>
         <v>#DIV/0!</v>
       </c>
@@ -2534,7 +2565,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="11"/>
+      <c r="J103" s="12"/>
     </row>
     <row r="104" spans="4:10">
       <c r="D104" s="1"/>
@@ -2543,7 +2574,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="11"/>
+      <c r="J104" s="12"/>
     </row>
     <row r="105" spans="4:10">
       <c r="D105" s="5"/>
@@ -2572,108 +2603,108 @@
       <c r="J106" s="1"/>
     </row>
     <row r="107" spans="4:10">
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="12">
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="13">
         <f t="shared" ref="I107:I112" si="7">G107*H107</f>
         <v>0</v>
       </c>
-      <c r="J107" s="12"/>
+      <c r="J107" s="13"/>
     </row>
     <row r="108" spans="4:10">
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="12">
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="12"/>
+      <c r="J108" s="13"/>
     </row>
     <row r="109" spans="4:10">
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="12">
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="12"/>
+      <c r="J109" s="13"/>
     </row>
     <row r="110" spans="4:10">
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="12">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J110" s="12"/>
+      <c r="J110" s="13"/>
     </row>
     <row r="111" spans="4:10">
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="12">
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J111" s="12"/>
+      <c r="J111" s="13"/>
     </row>
     <row r="112" spans="4:10">
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="12">
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J112" s="12"/>
+      <c r="J112" s="13"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E113" s="6"/>
+      <c r="E113" s="7"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="9">
+      <c r="G113" s="10">
         <f>SUM(G107:G112)</f>
         <v>0</v>
       </c>
-      <c r="H113" s="9"/>
-      <c r="I113" s="6">
+      <c r="H113" s="10"/>
+      <c r="I113" s="7">
         <f>SUM(I107:I112)</f>
         <v>0</v>
       </c>
-      <c r="J113" s="6"/>
+      <c r="J113" s="7"/>
     </row>
     <row r="114" spans="4:10">
       <c r="D114" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1">
         <f>SUM(G101,G77,G89,G65,G53,G42,G30,G18,G113)</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1">
         <f>SUM(I101,I89,I77,I65,I53,I42,I30,I18,I113)</f>
-        <v>224.3</v>
+        <v>372.8</v>
       </c>
       <c r="J114" s="1"/>
     </row>
@@ -2687,27 +2718,27 @@
       <c r="J115" s="1"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="14">
+      <c r="D116" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="15">
         <f>I114/G114</f>
-        <v>14.01875</v>
-      </c>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
+        <v>14.912</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -2940,7 +2971,7 @@
   <dimension ref="D8:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D93" sqref="D93:J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -2957,7 +2988,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="11">
+      <c r="J8" s="12">
         <f>I18/G18</f>
         <v>16.590625</v>
       </c>
@@ -2969,7 +3000,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" customFormat="1" spans="4:10">
       <c r="D10" s="2"/>
@@ -3003,17 +3034,17 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>16.8</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="13">
         <f t="shared" ref="I12:I17" si="0">G12*H12</f>
         <v>50.4</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" customFormat="1" spans="4:10">
       <c r="D13" s="3" t="s">
@@ -3021,17 +3052,17 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>17.8</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="13">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" customFormat="1" spans="4:10">
       <c r="D14" s="3" t="s">
@@ -3039,17 +3070,17 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>3</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>17.6</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" customFormat="1" spans="4:10">
       <c r="D15" s="3" t="s">
@@ -3057,17 +3088,17 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>3</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>16.55</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>49.65</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" customFormat="1" spans="4:10">
       <c r="D16" s="3" t="s">
@@ -3075,17 +3106,17 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>3</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>15</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" customFormat="1" spans="4:10">
       <c r="D17" s="3" t="s">
@@ -3093,17 +3124,17 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>2</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>16</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" customFormat="1" spans="4:10">
       <c r="D18" s="4" t="s">
@@ -3111,29 +3142,29 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6">
+      <c r="H18" s="10"/>
+      <c r="I18" s="7">
         <f>SUM(I12:I17)</f>
         <v>265.45</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="4:10">
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="11" t="e">
+      <c r="J19" s="12">
         <f>I30/G30</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="4:10">
@@ -3143,7 +3174,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" customFormat="1" spans="4:10">
       <c r="D21" s="1"/>
@@ -3152,7 +3183,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" customFormat="1" spans="4:10">
       <c r="D22" s="5"/>
@@ -3181,104 +3212,122 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" customFormat="1" spans="4:10">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="12">
+      <c r="D24" s="6" t="str">
+        <f>'EXPECTED RESULTS'!D24</f>
+        <v>DBMS</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="11">
+        <f>'EXPECTED RESULTS'!G24</f>
+        <v>3</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13">
         <f t="shared" ref="I24:I27" si="1">G24*H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" customFormat="1" spans="4:10">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="12">
+      <c r="D25" s="6" t="str">
+        <f>'EXPECTED RESULTS'!D25</f>
+        <v>Computer Maintenance</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="11">
+        <f>'EXPECTED RESULTS'!G25</f>
+        <v>3</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" customFormat="1" spans="4:10">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="12">
+      <c r="D26" s="6" t="str">
+        <f>'EXPECTED RESULTS'!D26</f>
+        <v>Digital computer Fundamentals</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="11">
+        <f>'EXPECTED RESULTS'!G26</f>
+        <v>3</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" customFormat="1" spans="4:10">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="12">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" customFormat="1" spans="4:10">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="12">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="13">
         <f>L38*M38</f>
         <v>0</v>
       </c>
-      <c r="J28" s="12"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" customFormat="1" spans="4:10">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="12">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="13">
         <f>G29*H29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" customFormat="1" spans="4:10">
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="9">
+      <c r="G30" s="10">
         <f>SUM(G24:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="6">
+        <v>9</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="7">
         <f>SUM(I24:I29)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="6"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" customFormat="1" customHeight="1" spans="4:10">
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="11" t="e">
+      <c r="J31" s="12" t="e">
         <f>I42/G42</f>
         <v>#DIV/0!</v>
       </c>
@@ -3290,7 +3339,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="11"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" customFormat="1" spans="4:10">
       <c r="D33" s="1"/>
@@ -3299,7 +3348,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="11"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" customFormat="1" spans="4:10">
       <c r="D34" s="5"/>
@@ -3328,106 +3377,106 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" customFormat="1" spans="4:10">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="12">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="13">
         <f t="shared" ref="I36:I41" si="2">G36*H36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="12"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" customFormat="1" spans="4:10">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="12">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="12"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" customFormat="1" spans="4:13">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="12">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="J38" s="13"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
     </row>
     <row r="39" customFormat="1" spans="4:10">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="12">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="12"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" customFormat="1" spans="4:10">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="12">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="12"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" customFormat="1" spans="4:10">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="12">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="12"/>
+      <c r="J41" s="13"/>
     </row>
     <row r="42" customFormat="1" spans="4:10">
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="9">
+      <c r="G42" s="10">
         <f>SUM(G36:G41)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="6">
+      <c r="H42" s="10"/>
+      <c r="I42" s="7">
         <f>SUM(I36:I41)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="6"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43" customFormat="1" customHeight="1" spans="4:10">
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="11" t="e">
+      <c r="J43" s="12" t="e">
         <f>I53/G53</f>
         <v>#DIV/0!</v>
       </c>
@@ -3439,7 +3488,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="11"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" customFormat="1" spans="4:10">
       <c r="D45" s="5"/>
@@ -3468,104 +3517,105 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" customFormat="1" spans="4:10">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="12">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="13">
         <f t="shared" ref="I47:I52" si="3">G47*H47</f>
         <v>0</v>
       </c>
-      <c r="J47" s="12"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" customFormat="1" spans="4:10">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="12">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J48" s="12"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" customFormat="1" spans="4:10">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="12">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J49" s="12"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" customFormat="1" spans="4:10">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="12">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" customFormat="1" spans="4:10">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="12">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J51" s="12"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" customFormat="1" spans="4:10">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="12">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J52" s="12"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" customFormat="1" spans="4:10">
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="9">
+      <c r="G53" s="10">
         <f>SUM(G47:G52)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="6">
+      <c r="H53" s="10"/>
+      <c r="I53" s="7">
         <f>SUM(I47:I52)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="6"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D54" s="1" t="s">
-        <v>15</v>
+      <c r="D54" s="1" t="str">
+        <f>'EXPECTED RESULTS'!D54</f>
+        <v>SEMESTER-5-SUMMER</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="11" t="e">
+      <c r="J54" s="12" t="e">
         <f>I65/G65</f>
         <v>#DIV/0!</v>
       </c>
@@ -3577,7 +3627,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="11"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" customFormat="1" spans="4:10">
       <c r="D56" s="1"/>
@@ -3586,7 +3636,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="11"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" customFormat="1" spans="4:10">
       <c r="D57" s="5"/>
@@ -3615,104 +3665,104 @@
       <c r="J58" s="1"/>
     </row>
     <row r="59" customFormat="1" spans="4:10">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="12">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="13">
         <f t="shared" ref="I59:I64" si="4">G59*H59</f>
         <v>0</v>
       </c>
-      <c r="J59" s="12"/>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" customFormat="1" spans="4:10">
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="12">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J60" s="12"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" customFormat="1" spans="4:10">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="12">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J61" s="12"/>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" customFormat="1" spans="4:10">
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="12">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J62" s="12"/>
+      <c r="J62" s="13"/>
     </row>
     <row r="63" customFormat="1" spans="4:10">
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="12">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J63" s="12"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" customFormat="1" spans="4:10">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="12">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J64" s="12"/>
+      <c r="J64" s="13"/>
     </row>
     <row r="65" customFormat="1" spans="4:10">
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="6"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="9">
+      <c r="G65" s="10">
         <f>SUM(G59:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="6">
+      <c r="H65" s="10"/>
+      <c r="I65" s="7">
         <f>SUM(I59:I64)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="6"/>
+      <c r="J65" s="7"/>
     </row>
     <row r="66" customFormat="1" customHeight="1" spans="4:10">
       <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="11" t="e">
+      <c r="J66" s="12" t="e">
         <f>I77/G77</f>
         <v>#DIV/0!</v>
       </c>
@@ -3724,7 +3774,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="11"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68" customFormat="1" spans="4:10">
       <c r="D68" s="1"/>
@@ -3733,7 +3783,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="11"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69" customFormat="1" spans="4:10">
       <c r="D69" s="5"/>
@@ -3762,104 +3812,104 @@
       <c r="J70" s="1"/>
     </row>
     <row r="71" customFormat="1" spans="4:10">
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="12">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="13">
         <f t="shared" ref="I71:I76" si="5">G71*H71</f>
         <v>0</v>
       </c>
-      <c r="J71" s="12"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" customFormat="1" spans="4:10">
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="12">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J72" s="12"/>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" customFormat="1" spans="4:10">
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="12">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J73" s="12"/>
+      <c r="J73" s="13"/>
     </row>
     <row r="74" customFormat="1" spans="4:10">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="12">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J74" s="12"/>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" customFormat="1" spans="4:10">
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="12">
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J75" s="12"/>
+      <c r="J75" s="13"/>
     </row>
     <row r="76" customFormat="1" spans="4:10">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="12">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J76" s="12"/>
+      <c r="J76" s="13"/>
     </row>
     <row r="77" customFormat="1" spans="4:10">
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="6"/>
+      <c r="E77" s="7"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="9">
+      <c r="G77" s="10">
         <f>SUM(G71:G76)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="6">
+      <c r="H77" s="10"/>
+      <c r="I77" s="7">
         <f>SUM(I71:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="6"/>
+      <c r="J77" s="7"/>
     </row>
     <row r="78" customFormat="1" customHeight="1" spans="4:10">
       <c r="D78" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="11" t="e">
+      <c r="J78" s="12" t="e">
         <f>I89/G89</f>
         <v>#DIV/0!</v>
       </c>
@@ -3871,7 +3921,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="11"/>
+      <c r="J79" s="12"/>
     </row>
     <row r="80" customFormat="1" spans="4:10">
       <c r="D80" s="1"/>
@@ -3880,7 +3930,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="11"/>
+      <c r="J80" s="12"/>
     </row>
     <row r="81" customFormat="1" spans="4:10">
       <c r="D81" s="5"/>
@@ -3909,104 +3959,105 @@
       <c r="J82" s="1"/>
     </row>
     <row r="83" customFormat="1" spans="4:10">
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="12">
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="13">
         <f t="shared" ref="I83:I88" si="6">G83*H83</f>
         <v>0</v>
       </c>
-      <c r="J83" s="12"/>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" customFormat="1" spans="4:10">
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="12">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J84" s="12"/>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" customFormat="1" spans="4:10">
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="12">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J85" s="12"/>
+      <c r="J85" s="13"/>
     </row>
     <row r="86" customFormat="1" spans="4:10">
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="12">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J86" s="12"/>
+      <c r="J86" s="13"/>
     </row>
     <row r="87" customFormat="1" spans="4:10">
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="12">
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J87" s="12"/>
+      <c r="J87" s="13"/>
     </row>
     <row r="88" customFormat="1" spans="4:10">
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="12">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J88" s="12"/>
+      <c r="J88" s="13"/>
     </row>
     <row r="89" customFormat="1" spans="4:10">
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="6"/>
+      <c r="E89" s="7"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="9">
+      <c r="G89" s="10">
         <f>SUM(G83:G88)</f>
         <v>0</v>
       </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="6">
+      <c r="H89" s="10"/>
+      <c r="I89" s="7">
         <f>SUM(I83:I88)</f>
         <v>0</v>
       </c>
-      <c r="J89" s="6"/>
+      <c r="J89" s="7"/>
     </row>
     <row r="90" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D90" s="1" t="s">
-        <v>18</v>
+      <c r="D90" s="1" t="str">
+        <f>'EXPECTED RESULTS'!D90</f>
+        <v>SEMESTER-8-SUMMER</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="11" t="e">
+      <c r="J90" s="12" t="e">
         <f>I101/G101</f>
         <v>#DIV/0!</v>
       </c>
@@ -4018,7 +4069,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="11"/>
+      <c r="J91" s="12"/>
     </row>
     <row r="92" customFormat="1" spans="4:10">
       <c r="D92" s="1"/>
@@ -4027,7 +4078,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="11"/>
+      <c r="J92" s="12"/>
     </row>
     <row r="93" customFormat="1" spans="4:10">
       <c r="D93" s="5"/>
@@ -4056,104 +4107,104 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" customFormat="1" spans="4:10">
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="12">
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="13">
         <f t="shared" ref="I95:I100" si="7">G95*H95</f>
         <v>0</v>
       </c>
-      <c r="J95" s="12"/>
+      <c r="J95" s="13"/>
     </row>
     <row r="96" customFormat="1" spans="4:10">
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="12">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J96" s="12"/>
+      <c r="J96" s="13"/>
     </row>
     <row r="97" customFormat="1" spans="4:10">
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="12">
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J97" s="12"/>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" customFormat="1" spans="4:10">
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="12">
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J98" s="12"/>
+      <c r="J98" s="13"/>
     </row>
     <row r="99" customFormat="1" spans="4:10">
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="12">
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J99" s="12"/>
+      <c r="J99" s="13"/>
     </row>
     <row r="100" customFormat="1" spans="4:10">
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="12">
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J100" s="12"/>
+      <c r="J100" s="13"/>
     </row>
     <row r="101" customFormat="1" spans="4:10">
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="6"/>
+      <c r="E101" s="7"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="9">
+      <c r="G101" s="10">
         <f>SUM(G95:G100)</f>
         <v>0</v>
       </c>
-      <c r="H101" s="9"/>
-      <c r="I101" s="6">
+      <c r="H101" s="10"/>
+      <c r="I101" s="7">
         <f>SUM(I95:I100)</f>
         <v>0</v>
       </c>
-      <c r="J101" s="6"/>
+      <c r="J101" s="7"/>
     </row>
     <row r="102" customFormat="1" spans="4:10">
       <c r="D102" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="11" t="e">
+      <c r="J102" s="12" t="e">
         <f>I113/G113</f>
         <v>#DIV/0!</v>
       </c>
@@ -4165,7 +4216,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="11"/>
+      <c r="J103" s="12"/>
     </row>
     <row r="104" customFormat="1" spans="4:10">
       <c r="D104" s="1"/>
@@ -4174,7 +4225,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="11"/>
+      <c r="J104" s="12"/>
     </row>
     <row r="105" customFormat="1" spans="4:10">
       <c r="D105" s="5"/>
@@ -4203,103 +4254,103 @@
       <c r="J106" s="1"/>
     </row>
     <row r="107" customFormat="1" spans="4:10">
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="12">
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="13">
         <f t="shared" ref="I107:I112" si="8">G107*H107</f>
         <v>0</v>
       </c>
-      <c r="J107" s="12"/>
+      <c r="J107" s="13"/>
     </row>
     <row r="108" customFormat="1" spans="4:10">
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="12">
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J108" s="12"/>
+      <c r="J108" s="13"/>
     </row>
     <row r="109" customFormat="1" spans="4:10">
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="12">
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J109" s="12"/>
+      <c r="J109" s="13"/>
     </row>
     <row r="110" customFormat="1" spans="4:10">
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="12">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J110" s="12"/>
+      <c r="J110" s="13"/>
     </row>
     <row r="111" customFormat="1" spans="4:10">
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="12">
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J111" s="12"/>
+      <c r="J111" s="13"/>
     </row>
     <row r="112" customFormat="1" spans="4:10">
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="12">
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J112" s="12"/>
+      <c r="J112" s="13"/>
     </row>
     <row r="113" customFormat="1" spans="4:10">
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E113" s="6"/>
+      <c r="E113" s="7"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="9">
+      <c r="G113" s="10">
         <f>SUM(G107:G112)</f>
         <v>0</v>
       </c>
-      <c r="H113" s="9"/>
-      <c r="I113" s="6">
+      <c r="H113" s="10"/>
+      <c r="I113" s="7">
         <f>SUM(I107:I112)</f>
         <v>0</v>
       </c>
-      <c r="J113" s="6"/>
+      <c r="J113" s="7"/>
     </row>
     <row r="114" customFormat="1" spans="4:10">
       <c r="D114" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1">
         <f>SUM(G101,G77,G89,G65,G53,G42,G30,G18,G113)</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1">
@@ -4318,27 +4369,27 @@
       <c r="J115" s="1"/>
     </row>
     <row r="116" customFormat="1" spans="4:10">
-      <c r="D116" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="14">
+      <c r="D116" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="15">
         <f>I114/G114</f>
-        <v>16.590625</v>
-      </c>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
+        <v>10.618</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
     </row>
     <row r="117" customFormat="1" spans="4:10">
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="179">

--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -1319,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="D8:M117"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:I56"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -2971,7 +2971,7 @@
   <dimension ref="D8:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93:J93"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -3377,10 +3377,16 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" customFormat="1" spans="4:10">
-      <c r="D36" s="6"/>
+      <c r="D36" s="6">
+        <f>'EXPECTED RESULTS'!D36</f>
+        <v>0</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="11">
+        <f>'EXPECTED RESULTS'!G36</f>
+        <v>0</v>
+      </c>
       <c r="H36" s="11"/>
       <c r="I36" s="13">
         <f t="shared" ref="I36:I41" si="2">G36*H36</f>
@@ -3389,10 +3395,16 @@
       <c r="J36" s="13"/>
     </row>
     <row r="37" customFormat="1" spans="4:10">
-      <c r="D37" s="6"/>
+      <c r="D37" s="6">
+        <f>'EXPECTED RESULTS'!D37</f>
+        <v>0</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="11">
+        <f>'EXPECTED RESULTS'!G37</f>
+        <v>0</v>
+      </c>
       <c r="H37" s="11"/>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
@@ -3401,10 +3413,16 @@
       <c r="J37" s="13"/>
     </row>
     <row r="38" customFormat="1" spans="4:13">
-      <c r="D38" s="6"/>
+      <c r="D38" s="6">
+        <f>'EXPECTED RESULTS'!D38</f>
+        <v>0</v>
+      </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="11">
+        <f>'EXPECTED RESULTS'!G38</f>
+        <v>0</v>
+      </c>
       <c r="H38" s="11"/>
       <c r="I38" s="13">
         <f t="shared" si="2"/>
@@ -3415,10 +3433,16 @@
       <c r="M38" s="11"/>
     </row>
     <row r="39" customFormat="1" spans="4:10">
-      <c r="D39" s="6"/>
+      <c r="D39" s="6">
+        <f>'EXPECTED RESULTS'!D39</f>
+        <v>0</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="11">
+        <f>'EXPECTED RESULTS'!G39</f>
+        <v>0</v>
+      </c>
       <c r="H39" s="11"/>
       <c r="I39" s="13">
         <f t="shared" si="2"/>
@@ -3427,10 +3451,16 @@
       <c r="J39" s="13"/>
     </row>
     <row r="40" customFormat="1" spans="4:10">
-      <c r="D40" s="6"/>
+      <c r="D40" s="6">
+        <f>'EXPECTED RESULTS'!D40</f>
+        <v>0</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="11">
+        <f>'EXPECTED RESULTS'!G40</f>
+        <v>0</v>
+      </c>
       <c r="H40" s="11"/>
       <c r="I40" s="13">
         <f t="shared" si="2"/>
@@ -3439,10 +3469,16 @@
       <c r="J40" s="13"/>
     </row>
     <row r="41" customFormat="1" spans="4:10">
-      <c r="D41" s="6"/>
+      <c r="D41" s="6">
+        <f>'EXPECTED RESULTS'!D41</f>
+        <v>0</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="11">
+        <f>'EXPECTED RESULTS'!G41</f>
+        <v>0</v>
+      </c>
       <c r="H41" s="11"/>
       <c r="I41" s="13">
         <f t="shared" si="2"/>
@@ -3517,10 +3553,16 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" customFormat="1" spans="4:10">
-      <c r="D47" s="6"/>
+      <c r="D47" s="6">
+        <f>'EXPECTED RESULTS'!D47</f>
+        <v>0</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="11"/>
+      <c r="G47" s="11">
+        <f>'EXPECTED RESULTS'!G47</f>
+        <v>0</v>
+      </c>
       <c r="H47" s="11"/>
       <c r="I47" s="13">
         <f t="shared" ref="I47:I52" si="3">G47*H47</f>
@@ -3529,10 +3571,16 @@
       <c r="J47" s="13"/>
     </row>
     <row r="48" customFormat="1" spans="4:10">
-      <c r="D48" s="6"/>
+      <c r="D48" s="6">
+        <f>'EXPECTED RESULTS'!D48</f>
+        <v>0</v>
+      </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="11">
+        <f>'EXPECTED RESULTS'!G48</f>
+        <v>0</v>
+      </c>
       <c r="H48" s="11"/>
       <c r="I48" s="13">
         <f t="shared" si="3"/>
@@ -3541,10 +3589,16 @@
       <c r="J48" s="13"/>
     </row>
     <row r="49" customFormat="1" spans="4:10">
-      <c r="D49" s="6"/>
+      <c r="D49" s="6">
+        <f>'EXPECTED RESULTS'!D49</f>
+        <v>0</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="11"/>
+      <c r="G49" s="11">
+        <f>'EXPECTED RESULTS'!G49</f>
+        <v>0</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="13">
         <f t="shared" si="3"/>
@@ -3553,10 +3607,16 @@
       <c r="J49" s="13"/>
     </row>
     <row r="50" customFormat="1" spans="4:10">
-      <c r="D50" s="6"/>
+      <c r="D50" s="6">
+        <f>'EXPECTED RESULTS'!D50</f>
+        <v>0</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="11"/>
+      <c r="G50" s="11">
+        <f>'EXPECTED RESULTS'!G50</f>
+        <v>0</v>
+      </c>
       <c r="H50" s="11"/>
       <c r="I50" s="13">
         <f t="shared" si="3"/>
@@ -3565,10 +3625,16 @@
       <c r="J50" s="13"/>
     </row>
     <row r="51" customFormat="1" spans="4:10">
-      <c r="D51" s="6"/>
+      <c r="D51" s="6">
+        <f>'EXPECTED RESULTS'!D51</f>
+        <v>0</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="11"/>
+      <c r="G51" s="11">
+        <f>'EXPECTED RESULTS'!G51</f>
+        <v>0</v>
+      </c>
       <c r="H51" s="11"/>
       <c r="I51" s="13">
         <f t="shared" si="3"/>
@@ -3577,10 +3643,16 @@
       <c r="J51" s="13"/>
     </row>
     <row r="52" customFormat="1" spans="4:10">
-      <c r="D52" s="6"/>
+      <c r="D52" s="6">
+        <f>'EXPECTED RESULTS'!D52</f>
+        <v>0</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="11"/>
+      <c r="G52" s="11">
+        <f>'EXPECTED RESULTS'!G52</f>
+        <v>0</v>
+      </c>
       <c r="H52" s="11"/>
       <c r="I52" s="13">
         <f t="shared" si="3"/>
@@ -3665,10 +3737,16 @@
       <c r="J58" s="1"/>
     </row>
     <row r="59" customFormat="1" spans="4:10">
-      <c r="D59" s="6"/>
+      <c r="D59" s="6">
+        <f>'EXPECTED RESULTS'!D59</f>
+        <v>0</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="11"/>
+      <c r="G59" s="11">
+        <f>'EXPECTED RESULTS'!G59</f>
+        <v>0</v>
+      </c>
       <c r="H59" s="11"/>
       <c r="I59" s="13">
         <f t="shared" ref="I59:I64" si="4">G59*H59</f>
@@ -3677,10 +3755,16 @@
       <c r="J59" s="13"/>
     </row>
     <row r="60" customFormat="1" spans="4:10">
-      <c r="D60" s="6"/>
+      <c r="D60" s="6">
+        <f>'EXPECTED RESULTS'!D60</f>
+        <v>0</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="11"/>
+      <c r="G60" s="11">
+        <f>'EXPECTED RESULTS'!G60</f>
+        <v>0</v>
+      </c>
       <c r="H60" s="11"/>
       <c r="I60" s="13">
         <f t="shared" si="4"/>
@@ -3689,10 +3773,16 @@
       <c r="J60" s="13"/>
     </row>
     <row r="61" customFormat="1" spans="4:10">
-      <c r="D61" s="6"/>
+      <c r="D61" s="6">
+        <f>'EXPECTED RESULTS'!D61</f>
+        <v>0</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="11"/>
+      <c r="G61" s="11">
+        <f>'EXPECTED RESULTS'!G61</f>
+        <v>0</v>
+      </c>
       <c r="H61" s="11"/>
       <c r="I61" s="13">
         <f t="shared" si="4"/>
@@ -3701,10 +3791,16 @@
       <c r="J61" s="13"/>
     </row>
     <row r="62" customFormat="1" spans="4:10">
-      <c r="D62" s="6"/>
+      <c r="D62" s="6">
+        <f>'EXPECTED RESULTS'!D62</f>
+        <v>0</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="11"/>
+      <c r="G62" s="11">
+        <f>'EXPECTED RESULTS'!G62</f>
+        <v>0</v>
+      </c>
       <c r="H62" s="11"/>
       <c r="I62" s="13">
         <f t="shared" si="4"/>
@@ -3713,10 +3809,16 @@
       <c r="J62" s="13"/>
     </row>
     <row r="63" customFormat="1" spans="4:10">
-      <c r="D63" s="6"/>
+      <c r="D63" s="6">
+        <f>'EXPECTED RESULTS'!D63</f>
+        <v>0</v>
+      </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="11"/>
+      <c r="G63" s="11">
+        <f>'EXPECTED RESULTS'!G63</f>
+        <v>0</v>
+      </c>
       <c r="H63" s="11"/>
       <c r="I63" s="13">
         <f t="shared" si="4"/>
@@ -3725,10 +3827,16 @@
       <c r="J63" s="13"/>
     </row>
     <row r="64" customFormat="1" spans="4:10">
-      <c r="D64" s="6"/>
+      <c r="D64" s="6">
+        <f>'EXPECTED RESULTS'!D64</f>
+        <v>0</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="11"/>
+      <c r="G64" s="11">
+        <f>'EXPECTED RESULTS'!G64</f>
+        <v>0</v>
+      </c>
       <c r="H64" s="11"/>
       <c r="I64" s="13">
         <f t="shared" si="4"/>
@@ -3812,10 +3920,16 @@
       <c r="J70" s="1"/>
     </row>
     <row r="71" customFormat="1" spans="4:10">
-      <c r="D71" s="6"/>
+      <c r="D71" s="6">
+        <f>'EXPECTED RESULTS'!D71</f>
+        <v>0</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="11"/>
+      <c r="G71" s="11">
+        <f>'EXPECTED RESULTS'!G71</f>
+        <v>0</v>
+      </c>
       <c r="H71" s="11"/>
       <c r="I71" s="13">
         <f t="shared" ref="I71:I76" si="5">G71*H71</f>
@@ -3824,10 +3938,16 @@
       <c r="J71" s="13"/>
     </row>
     <row r="72" customFormat="1" spans="4:10">
-      <c r="D72" s="6"/>
+      <c r="D72" s="6">
+        <f>'EXPECTED RESULTS'!D72</f>
+        <v>0</v>
+      </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="11"/>
+      <c r="G72" s="11">
+        <f>'EXPECTED RESULTS'!G72</f>
+        <v>0</v>
+      </c>
       <c r="H72" s="11"/>
       <c r="I72" s="13">
         <f t="shared" si="5"/>
@@ -3836,10 +3956,16 @@
       <c r="J72" s="13"/>
     </row>
     <row r="73" customFormat="1" spans="4:10">
-      <c r="D73" s="6"/>
+      <c r="D73" s="6">
+        <f>'EXPECTED RESULTS'!D73</f>
+        <v>0</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="11"/>
+      <c r="G73" s="11">
+        <f>'EXPECTED RESULTS'!G73</f>
+        <v>0</v>
+      </c>
       <c r="H73" s="11"/>
       <c r="I73" s="13">
         <f t="shared" si="5"/>
@@ -3848,10 +3974,16 @@
       <c r="J73" s="13"/>
     </row>
     <row r="74" customFormat="1" spans="4:10">
-      <c r="D74" s="6"/>
+      <c r="D74" s="6">
+        <f>'EXPECTED RESULTS'!D74</f>
+        <v>0</v>
+      </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="11"/>
+      <c r="G74" s="11">
+        <f>'EXPECTED RESULTS'!G74</f>
+        <v>0</v>
+      </c>
       <c r="H74" s="11"/>
       <c r="I74" s="13">
         <f t="shared" si="5"/>
@@ -3860,10 +3992,16 @@
       <c r="J74" s="13"/>
     </row>
     <row r="75" customFormat="1" spans="4:10">
-      <c r="D75" s="6"/>
+      <c r="D75" s="6">
+        <f>'EXPECTED RESULTS'!D75</f>
+        <v>0</v>
+      </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="11"/>
+      <c r="G75" s="11">
+        <f>'EXPECTED RESULTS'!G75</f>
+        <v>0</v>
+      </c>
       <c r="H75" s="11"/>
       <c r="I75" s="13">
         <f t="shared" si="5"/>
@@ -3872,10 +4010,16 @@
       <c r="J75" s="13"/>
     </row>
     <row r="76" customFormat="1" spans="4:10">
-      <c r="D76" s="6"/>
+      <c r="D76" s="6">
+        <f>'EXPECTED RESULTS'!D76</f>
+        <v>0</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="11"/>
+      <c r="G76" s="11">
+        <f>'EXPECTED RESULTS'!G76</f>
+        <v>0</v>
+      </c>
       <c r="H76" s="11"/>
       <c r="I76" s="13">
         <f t="shared" si="5"/>
@@ -3959,10 +4103,16 @@
       <c r="J82" s="1"/>
     </row>
     <row r="83" customFormat="1" spans="4:10">
-      <c r="D83" s="6"/>
+      <c r="D83" s="6">
+        <f>'EXPECTED RESULTS'!D83</f>
+        <v>0</v>
+      </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="11"/>
+      <c r="G83" s="11">
+        <f>'EXPECTED RESULTS'!G83</f>
+        <v>0</v>
+      </c>
       <c r="H83" s="11"/>
       <c r="I83" s="13">
         <f t="shared" ref="I83:I88" si="6">G83*H83</f>
@@ -3971,10 +4121,16 @@
       <c r="J83" s="13"/>
     </row>
     <row r="84" customFormat="1" spans="4:10">
-      <c r="D84" s="6"/>
+      <c r="D84" s="6">
+        <f>'EXPECTED RESULTS'!D84</f>
+        <v>0</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="11"/>
+      <c r="G84" s="11">
+        <f>'EXPECTED RESULTS'!G84</f>
+        <v>0</v>
+      </c>
       <c r="H84" s="11"/>
       <c r="I84" s="13">
         <f t="shared" si="6"/>
@@ -3983,10 +4139,16 @@
       <c r="J84" s="13"/>
     </row>
     <row r="85" customFormat="1" spans="4:10">
-      <c r="D85" s="6"/>
+      <c r="D85" s="6">
+        <f>'EXPECTED RESULTS'!D85</f>
+        <v>0</v>
+      </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="11"/>
+      <c r="G85" s="11">
+        <f>'EXPECTED RESULTS'!G85</f>
+        <v>0</v>
+      </c>
       <c r="H85" s="11"/>
       <c r="I85" s="13">
         <f t="shared" si="6"/>
@@ -3995,10 +4157,16 @@
       <c r="J85" s="13"/>
     </row>
     <row r="86" customFormat="1" spans="4:10">
-      <c r="D86" s="6"/>
+      <c r="D86" s="6">
+        <f>'EXPECTED RESULTS'!D86</f>
+        <v>0</v>
+      </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="11"/>
+      <c r="G86" s="11">
+        <f>'EXPECTED RESULTS'!G86</f>
+        <v>0</v>
+      </c>
       <c r="H86" s="11"/>
       <c r="I86" s="13">
         <f t="shared" si="6"/>
@@ -4007,10 +4175,16 @@
       <c r="J86" s="13"/>
     </row>
     <row r="87" customFormat="1" spans="4:10">
-      <c r="D87" s="6"/>
+      <c r="D87" s="6">
+        <f>'EXPECTED RESULTS'!D87</f>
+        <v>0</v>
+      </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="11"/>
+      <c r="G87" s="11">
+        <f>'EXPECTED RESULTS'!G87</f>
+        <v>0</v>
+      </c>
       <c r="H87" s="11"/>
       <c r="I87" s="13">
         <f t="shared" si="6"/>
@@ -4019,10 +4193,16 @@
       <c r="J87" s="13"/>
     </row>
     <row r="88" customFormat="1" spans="4:10">
-      <c r="D88" s="6"/>
+      <c r="D88" s="6">
+        <f>'EXPECTED RESULTS'!D88</f>
+        <v>0</v>
+      </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="11"/>
+      <c r="G88" s="11">
+        <f>'EXPECTED RESULTS'!G88</f>
+        <v>0</v>
+      </c>
       <c r="H88" s="11"/>
       <c r="I88" s="13">
         <f t="shared" si="6"/>
@@ -4107,10 +4287,16 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" customFormat="1" spans="4:10">
-      <c r="D95" s="6"/>
+      <c r="D95" s="6">
+        <f>'EXPECTED RESULTS'!D95</f>
+        <v>0</v>
+      </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="11"/>
+      <c r="G95" s="11">
+        <f>'EXPECTED RESULTS'!G95</f>
+        <v>0</v>
+      </c>
       <c r="H95" s="11"/>
       <c r="I95" s="13">
         <f t="shared" ref="I95:I100" si="7">G95*H95</f>
@@ -4119,10 +4305,16 @@
       <c r="J95" s="13"/>
     </row>
     <row r="96" customFormat="1" spans="4:10">
-      <c r="D96" s="6"/>
+      <c r="D96" s="6">
+        <f>'EXPECTED RESULTS'!D96</f>
+        <v>0</v>
+      </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="11"/>
+      <c r="G96" s="11">
+        <f>'EXPECTED RESULTS'!G96</f>
+        <v>0</v>
+      </c>
       <c r="H96" s="11"/>
       <c r="I96" s="13">
         <f t="shared" si="7"/>
@@ -4131,10 +4323,16 @@
       <c r="J96" s="13"/>
     </row>
     <row r="97" customFormat="1" spans="4:10">
-      <c r="D97" s="6"/>
+      <c r="D97" s="6">
+        <f>'EXPECTED RESULTS'!D97</f>
+        <v>0</v>
+      </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="11"/>
+      <c r="G97" s="11">
+        <f>'EXPECTED RESULTS'!G97</f>
+        <v>0</v>
+      </c>
       <c r="H97" s="11"/>
       <c r="I97" s="13">
         <f t="shared" si="7"/>
@@ -4143,10 +4341,16 @@
       <c r="J97" s="13"/>
     </row>
     <row r="98" customFormat="1" spans="4:10">
-      <c r="D98" s="6"/>
+      <c r="D98" s="6">
+        <f>'EXPECTED RESULTS'!D98</f>
+        <v>0</v>
+      </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="11"/>
+      <c r="G98" s="11">
+        <f>'EXPECTED RESULTS'!G98</f>
+        <v>0</v>
+      </c>
       <c r="H98" s="11"/>
       <c r="I98" s="13">
         <f t="shared" si="7"/>
@@ -4155,10 +4359,16 @@
       <c r="J98" s="13"/>
     </row>
     <row r="99" customFormat="1" spans="4:10">
-      <c r="D99" s="6"/>
+      <c r="D99" s="6">
+        <f>'EXPECTED RESULTS'!D99</f>
+        <v>0</v>
+      </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="11"/>
+      <c r="G99" s="11">
+        <f>'EXPECTED RESULTS'!G99</f>
+        <v>0</v>
+      </c>
       <c r="H99" s="11"/>
       <c r="I99" s="13">
         <f t="shared" si="7"/>
@@ -4167,10 +4377,16 @@
       <c r="J99" s="13"/>
     </row>
     <row r="100" customFormat="1" spans="4:10">
-      <c r="D100" s="6"/>
+      <c r="D100" s="6">
+        <f>'EXPECTED RESULTS'!D100</f>
+        <v>0</v>
+      </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="11"/>
+      <c r="G100" s="11">
+        <f>'EXPECTED RESULTS'!G100</f>
+        <v>0</v>
+      </c>
       <c r="H100" s="11"/>
       <c r="I100" s="13">
         <f t="shared" si="7"/>
@@ -4254,10 +4470,16 @@
       <c r="J106" s="1"/>
     </row>
     <row r="107" customFormat="1" spans="4:10">
-      <c r="D107" s="6"/>
+      <c r="D107" s="6">
+        <f>'EXPECTED RESULTS'!D107</f>
+        <v>0</v>
+      </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="11"/>
+      <c r="G107" s="11">
+        <f>'EXPECTED RESULTS'!G107</f>
+        <v>0</v>
+      </c>
       <c r="H107" s="11"/>
       <c r="I107" s="13">
         <f t="shared" ref="I107:I112" si="8">G107*H107</f>
@@ -4266,10 +4488,16 @@
       <c r="J107" s="13"/>
     </row>
     <row r="108" customFormat="1" spans="4:10">
-      <c r="D108" s="6"/>
+      <c r="D108" s="6">
+        <f>'EXPECTED RESULTS'!D108</f>
+        <v>0</v>
+      </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="11"/>
+      <c r="G108" s="11">
+        <f>'EXPECTED RESULTS'!G108</f>
+        <v>0</v>
+      </c>
       <c r="H108" s="11"/>
       <c r="I108" s="13">
         <f t="shared" si="8"/>
@@ -4278,10 +4506,16 @@
       <c r="J108" s="13"/>
     </row>
     <row r="109" customFormat="1" spans="4:10">
-      <c r="D109" s="6"/>
+      <c r="D109" s="6">
+        <f>'EXPECTED RESULTS'!D109</f>
+        <v>0</v>
+      </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="11"/>
+      <c r="G109" s="11">
+        <f>'EXPECTED RESULTS'!G109</f>
+        <v>0</v>
+      </c>
       <c r="H109" s="11"/>
       <c r="I109" s="13">
         <f t="shared" si="8"/>
@@ -4290,10 +4524,16 @@
       <c r="J109" s="13"/>
     </row>
     <row r="110" customFormat="1" spans="4:10">
-      <c r="D110" s="6"/>
+      <c r="D110" s="6">
+        <f>'EXPECTED RESULTS'!D110</f>
+        <v>0</v>
+      </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="11"/>
+      <c r="G110" s="11">
+        <f>'EXPECTED RESULTS'!G110</f>
+        <v>0</v>
+      </c>
       <c r="H110" s="11"/>
       <c r="I110" s="13">
         <f t="shared" si="8"/>
@@ -4302,10 +4542,16 @@
       <c r="J110" s="13"/>
     </row>
     <row r="111" customFormat="1" spans="4:10">
-      <c r="D111" s="6"/>
+      <c r="D111" s="6">
+        <f>'EXPECTED RESULTS'!D111</f>
+        <v>0</v>
+      </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="11"/>
+      <c r="G111" s="11">
+        <f>'EXPECTED RESULTS'!G111</f>
+        <v>0</v>
+      </c>
       <c r="H111" s="11"/>
       <c r="I111" s="13">
         <f t="shared" si="8"/>
@@ -4314,10 +4560,16 @@
       <c r="J111" s="13"/>
     </row>
     <row r="112" customFormat="1" spans="4:10">
-      <c r="D112" s="6"/>
+      <c r="D112" s="6">
+        <f>'EXPECTED RESULTS'!D112</f>
+        <v>0</v>
+      </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="11"/>
+      <c r="G112" s="11">
+        <f>'EXPECTED RESULTS'!G112</f>
+        <v>0</v>
+      </c>
       <c r="H112" s="11"/>
       <c r="I112" s="13">
         <f t="shared" si="8"/>

--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="97">
   <si>
     <t>SEMESTER-1</t>
   </si>
@@ -114,7 +114,7 @@
     <t>English Proficiency I</t>
   </si>
   <si>
-    <t>Data Structure and Algorthims</t>
+    <t>Data Structure and Algorthim</t>
   </si>
   <si>
     <t>Theory of Computation</t>
@@ -210,10 +210,20 @@
     <t>SEMESTER-2-SUMMER</t>
   </si>
   <si>
-    <t>COURSES</t>
-  </si>
-  <si>
-    <t>Advanced Software Modeling and Design</t>
+    <r>
+      <t xml:space="preserve">Advanced Software Modeling and Design </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(merged into Software Modeling and Design)</t>
+    </r>
   </si>
   <si>
     <t>Applied Mathematics</t>
@@ -222,24 +232,12 @@
     <t>Bible Doctrines</t>
   </si>
   <si>
-    <t>Best Progr. Practice &amp; Design Patte</t>
-  </si>
-  <si>
-    <t>Best Programming Practice Design Patterns</t>
-  </si>
-  <si>
-    <t>Data Structure and Algorithm</t>
+    <t>Best Programming Practice &amp; Design Patterns</t>
   </si>
   <si>
     <t>Data Structures and Algorithms</t>
   </si>
   <si>
-    <t>Database development with PL/SQL</t>
-  </si>
-  <si>
-    <t>Database Management System</t>
-  </si>
-  <si>
     <t>Database Management Systems</t>
   </si>
   <si>
@@ -261,9 +259,6 @@
     <t>English Certificate Proficiency II</t>
   </si>
   <si>
-    <t>English Proficiency Certificate I</t>
-  </si>
-  <si>
     <t>English Speaking Skills</t>
   </si>
   <si>
@@ -285,7 +280,20 @@
     <t>Introduction to LINUX Administration</t>
   </si>
   <si>
-    <t>Internship (IT)</t>
+    <r>
+      <t xml:space="preserve">Internship </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(includes Internship (IT))</t>
+    </r>
   </si>
   <si>
     <t>Management Information Systems</t>
@@ -294,10 +302,7 @@
     <t>Mobile Programming</t>
   </si>
   <si>
-    <t>Multivariable Calculus and ODE</t>
-  </si>
-  <si>
-    <t>Multivariable Calculus&amp; Differential Equations</t>
+    <t>Multivariable Calculus &amp; Differential Equations</t>
   </si>
   <si>
     <t>Object-Oriented Programming</t>
@@ -315,22 +320,10 @@
     <t>Probability and Statistics</t>
   </si>
   <si>
-    <t>Probability and Statistics &amp; Reliability</t>
-  </si>
-  <si>
-    <t>Programming With C</t>
-  </si>
-  <si>
     <t>Requirements Engineering</t>
   </si>
   <si>
-    <t>Software Modeling Design</t>
-  </si>
-  <si>
     <t>Software Modeling and Design</t>
-  </si>
-  <si>
-    <t>Software Project Managment</t>
   </si>
   <si>
     <t>Software Testing Techniques</t>
@@ -347,22 +340,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -401,6 +386,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -416,16 +409,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,7 +457,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,6 +471,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -469,30 +486,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,9 +502,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,27 +516,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -572,13 +565,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,151 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,6 +716,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,17 +762,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,13 +836,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,213 +855,201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1592,8 +1573,8 @@
   <sheetPr/>
   <dimension ref="D8:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119:J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -1603,1829 +1584,1831 @@
   </cols>
   <sheetData>
     <row r="8" customHeight="1" spans="4:10">
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="14">
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="12">
         <f>I18/G18</f>
         <v>14.01875</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="14"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="4:10">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10">
-        <v>3</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="8">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
         <v>12</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <f>G12*H12</f>
         <v>36</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="10">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <v>15</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <f t="shared" ref="I12:I17" si="0">G13*H13</f>
         <v>30</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="10">
-        <v>3</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8">
         <v>14</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="10">
-        <v>3</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="8">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8">
         <v>14.9</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>44.7</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="10">
-        <v>3</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="8">
+        <v>3</v>
+      </c>
+      <c r="H16" s="8">
         <v>14</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="10">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="8">
         <v>2</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <v>14.8</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="12">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="10">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="8">
+      <c r="H18" s="10"/>
+      <c r="I18" s="7">
         <f>SUM(I12:I17)</f>
         <v>224.3</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="4:10">
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="1" t="str">
         <f>'FINAL RESULT'!D19</f>
         <v>SEMESTER-2-SUMMER</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="14">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="12">
         <f>I27/G27</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="14"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="14"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="4:10">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="13">
-        <v>3</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="11">
+        <v>3</v>
+      </c>
+      <c r="H24" s="11">
         <v>17</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="13">
         <f>G24*H24</f>
         <v>51</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="13">
-        <v>3</v>
-      </c>
-      <c r="H25" s="13">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="11">
+        <v>3</v>
+      </c>
+      <c r="H25" s="11">
         <v>16.5</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="13">
         <f>G25*H25</f>
         <v>49.5</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="13">
-        <v>3</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="11">
+        <v>3</v>
+      </c>
+      <c r="H26" s="11">
         <v>16</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="13">
         <f>G26*H26</f>
         <v>48</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="12">
+      <c r="E27" s="7"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="10">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="8">
+      <c r="H27" s="10"/>
+      <c r="I27" s="7">
         <f>SUM(I24:I26)</f>
         <v>148.5</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" customHeight="1" spans="4:10">
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="14">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="12">
         <f>I39/G39</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="14"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="14"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="4:10">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="4:10">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="13">
-        <v>3</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="15">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="11">
+        <v>3</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="13">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="15"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="4:10">
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="13">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="11">
         <v>4</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="15">
+      <c r="H34" s="11"/>
+      <c r="I34" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="15"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="4:13">
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="13">
-        <v>3</v>
-      </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="15">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="11">
+        <v>3</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="M35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="36" spans="4:10">
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="13">
-        <v>3</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="15">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="11">
+        <v>3</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="15"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="4:10">
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="13">
-        <v>3</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="15">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="11">
+        <v>3</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="15"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="4:10">
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="15">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="15"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="4:10">
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="12">
+      <c r="E39" s="7"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="10">
         <f>SUM(G33:G38)</f>
         <v>16</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="8">
+      <c r="H39" s="10"/>
+      <c r="I39" s="7">
         <f>SUM(I33:I38)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="8"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" customHeight="1" spans="4:10">
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="14">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="12">
         <f>I50/G50</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:10">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="14"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="4:10">
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="4:10">
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="H43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="2"/>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="4:10">
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="13">
-        <v>3</v>
-      </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="15">
-        <f>G44*H44</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="15"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="11">
+        <v>3</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="13">
+        <f t="shared" ref="I44:I49" si="2">G44*H44</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="4:10">
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="13">
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="11">
         <v>4</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="15">
-        <f>G45*H45</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="15"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="4:10">
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="13">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="11">
         <v>4</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="15">
-        <f>G46*H46</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="15"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="4:10">
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="13">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="11">
         <v>4</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="15">
-        <f>G47*H47</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="15"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="4:10">
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="15">
-        <f>G48*H48</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="15"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="4:10">
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="15">
-        <f>G49*H49</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="15"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="12">
+      <c r="E50" s="7"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="10">
         <f>SUM(G44:G49)</f>
         <v>15</v>
       </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="8">
+      <c r="H50" s="10"/>
+      <c r="I50" s="7">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="8"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" customHeight="1" spans="4:10">
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="14">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="12">
         <f>I62/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="14"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="14"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
     </row>
     <row r="55" spans="4:10">
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="H55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="13">
-        <v>3</v>
-      </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="15">
-        <f t="shared" ref="I56:I61" si="2">G56*H56</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="15"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="11">
+        <v>3</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="13">
+        <f t="shared" ref="I56:I61" si="3">G56*H56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="4:10">
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="13">
-        <v>3</v>
-      </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="15"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="11">
+        <v>3</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="4:10">
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="13">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="11">
         <v>4</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="15"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="15"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="15"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="15"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="12">
+      <c r="E62" s="7"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="10">
         <f>SUM(G56:G61)</f>
         <v>10</v>
       </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="8">
+      <c r="H62" s="10"/>
+      <c r="I62" s="7">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="8"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" customHeight="1" spans="4:10">
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="14">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="12">
         <f>I74/G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="14"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" spans="4:10">
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="14"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="12"/>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
     </row>
     <row r="67" spans="4:10">
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="H67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="13">
-        <v>3</v>
-      </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="15">
-        <f>G68*H68</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="15"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="11">
+        <v>3</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="13">
+        <f t="shared" ref="I68:I73" si="4">G68*H68</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="13"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="13">
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="11">
         <v>4</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="15">
-        <f>G69*H69</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="15"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="13"/>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="13">
-        <v>3</v>
-      </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="15">
-        <f>G70*H70</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="15"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="11">
+        <v>3</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="13">
-        <v>3</v>
-      </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="15">
-        <f>G71*H71</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="15"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="11">
+        <v>3</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="13">
-        <v>3</v>
-      </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="15">
-        <f>G72*H72</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="15"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="11">
+        <v>3</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="15">
-        <f>G73*H73</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="15"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="13"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="12">
+      <c r="E74" s="7"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="10">
         <f>SUM(G68:G73)</f>
         <v>16</v>
       </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="8">
+      <c r="H74" s="10"/>
+      <c r="I74" s="7">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="8"/>
+      <c r="J74" s="7"/>
     </row>
     <row r="75" customHeight="1" spans="4:10">
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="14">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="12">
         <f>I86/G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="14"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="12"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="14"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="12"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
     </row>
     <row r="79" spans="4:10">
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2" t="s">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I79" s="2" t="s">
+      <c r="H79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="2"/>
+      <c r="J79" s="1"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="13">
-        <v>3</v>
-      </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="15">
-        <f>G80*H80</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="15"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="11">
+        <v>3</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="13">
+        <f t="shared" ref="I80:I85" si="5">G80*H80</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="13"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="13">
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="11">
         <v>4</v>
       </c>
-      <c r="H81" s="13"/>
-      <c r="I81" s="15">
-        <f>G81*H81</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="15"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="13"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="13">
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="11">
         <v>2</v>
       </c>
-      <c r="H82" s="13"/>
-      <c r="I82" s="15">
-        <f>G82*H82</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="15"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="13"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="13">
-        <v>3</v>
-      </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="15">
-        <f>G83*H83</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="15"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="11">
+        <v>3</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="13">
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="11">
         <v>4</v>
       </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="15">
-        <f>G84*H84</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="15"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="15">
-        <f>G85*H85</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="15"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="13"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="12">
+      <c r="E86" s="7"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="10">
         <f>SUM(G80:G85)</f>
         <v>16</v>
       </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="8">
+      <c r="H86" s="10"/>
+      <c r="I86" s="7">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="8"/>
+      <c r="J86" s="7"/>
     </row>
     <row r="87" customHeight="1" spans="4:10">
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="14">
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="12">
         <f>I98/G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="14"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="12"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="14"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="12"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
     </row>
     <row r="91" spans="4:10">
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2" t="s">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="2" t="s">
+      <c r="H91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="2"/>
+      <c r="J91" s="1"/>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="13">
-        <v>3</v>
-      </c>
-      <c r="H92" s="13"/>
-      <c r="I92" s="15">
-        <f t="shared" ref="I92:I97" si="3">G92*H92</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="15"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="11">
+        <v>3</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="13">
+        <f t="shared" ref="I92:I97" si="6">G92*H92</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="13"/>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="13">
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="11">
         <v>4</v>
       </c>
-      <c r="H93" s="13"/>
-      <c r="I93" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="15"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="13"/>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="13">
-        <v>3</v>
-      </c>
-      <c r="H94" s="13"/>
-      <c r="I94" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="15"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="11">
+        <v>3</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="13"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="15"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="13"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="15"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="13"/>
     </row>
     <row r="97" spans="4:10">
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="15"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" spans="4:10">
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="12">
+      <c r="E98" s="7"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="10">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
-      <c r="H98" s="12"/>
-      <c r="I98" s="8">
+      <c r="H98" s="10"/>
+      <c r="I98" s="7">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="8"/>
+      <c r="J98" s="7"/>
     </row>
     <row r="99" spans="4:10">
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="14">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="12">
         <f>I110/G110</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:10">
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="14"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="12"/>
     </row>
     <row r="101" spans="4:19">
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="14"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="13"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="12"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="11"/>
     </row>
     <row r="102" spans="4:19">
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="13"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="11"/>
     </row>
     <row r="103" spans="4:19">
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2" t="s">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I103" s="2" t="s">
+      <c r="H103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J103" s="2"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="13"/>
+      <c r="J103" s="1"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="11"/>
     </row>
     <row r="104" spans="4:10">
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="13">
-        <v>3</v>
-      </c>
-      <c r="H104" s="13"/>
-      <c r="I104" s="15">
-        <f>G104*H104</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="15"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="11">
+        <v>3</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="13">
+        <f t="shared" ref="I104:I109" si="7">G104*H104</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="13"/>
     </row>
     <row r="105" spans="4:10">
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="13">
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="11">
         <v>2</v>
       </c>
-      <c r="H105" s="13"/>
-      <c r="I105" s="15">
-        <f>G105*H105</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="15"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="13"/>
     </row>
     <row r="106" spans="4:10">
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="13">
-        <v>3</v>
-      </c>
-      <c r="H106" s="13"/>
-      <c r="I106" s="15">
-        <f>G106*H106</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="15"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="11">
+        <v>3</v>
+      </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="13"/>
     </row>
     <row r="107" spans="4:10">
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="13">
-        <v>3</v>
-      </c>
-      <c r="H107" s="13"/>
-      <c r="I107" s="15">
-        <f>G107*H107</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="15"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="11">
+        <v>3</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="13"/>
     </row>
     <row r="108" spans="4:10">
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="13">
-        <v>3</v>
-      </c>
-      <c r="H108" s="13"/>
-      <c r="I108" s="15">
-        <f>G108*H108</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="15"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="11">
+        <v>3</v>
+      </c>
+      <c r="H108" s="11"/>
+      <c r="I108" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="13"/>
     </row>
     <row r="109" spans="4:10">
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="15">
-        <f>G109*H109</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="15"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="13"/>
     </row>
     <row r="110" spans="4:10">
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="12">
+      <c r="E110" s="7"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="10">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="8">
+      <c r="H110" s="10"/>
+      <c r="I110" s="7">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="8"/>
+      <c r="J110" s="7"/>
     </row>
     <row r="111" spans="4:10">
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="14">
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="12">
         <f>I122/G122</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:10">
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="14"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="12"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="14"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="12"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
     </row>
     <row r="115" spans="4:10">
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2" t="s">
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I115" s="2" t="s">
+      <c r="H115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="2"/>
+      <c r="J115" s="1"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="13">
-        <v>3</v>
-      </c>
-      <c r="H116" s="13"/>
-      <c r="I116" s="15">
-        <f t="shared" ref="I116:I121" si="4">G116*H116</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="15"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="11">
+        <v>3</v>
+      </c>
+      <c r="H116" s="11"/>
+      <c r="I116" s="13">
+        <f t="shared" ref="I116:I121" si="8">G116*H116</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="13"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="13">
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="11">
         <v>4</v>
       </c>
-      <c r="H117" s="13"/>
-      <c r="I117" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="15"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="13"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="13">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="11">
         <v>4</v>
       </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="15"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="13"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="13">
-        <v>3</v>
-      </c>
-      <c r="H119" s="13"/>
-      <c r="I119" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="15"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="11">
+        <v>3</v>
+      </c>
+      <c r="H119" s="11"/>
+      <c r="I119" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="13"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="15"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="13"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="15"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="13"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="12">
+      <c r="E122" s="7"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="10">
         <f>SUM(G116:G121)</f>
         <v>14</v>
       </c>
-      <c r="H122" s="12"/>
-      <c r="I122" s="8">
+      <c r="H122" s="10"/>
+      <c r="I122" s="7">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="8"/>
+      <c r="J122" s="7"/>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="14">
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="12">
         <f>I134/G134</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="14"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="12"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="14"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="12"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
     </row>
     <row r="127" spans="4:10">
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2" t="s">
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I127" s="2" t="s">
+      <c r="H127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J127" s="2"/>
+      <c r="J127" s="1"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="15">
-        <f t="shared" ref="I128:I133" si="5">G128*H128</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="15"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="11">
+        <v>3</v>
+      </c>
+      <c r="H128" s="11"/>
+      <c r="I128" s="13">
+        <f t="shared" ref="I128:I133" si="9">G128*H128</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="13"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="13">
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="11">
         <v>4</v>
       </c>
-      <c r="H129" s="13"/>
-      <c r="I129" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="15"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="13"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="13">
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="11">
         <v>6</v>
       </c>
-      <c r="H130" s="13"/>
-      <c r="I130" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="15"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="13"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="15"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="13"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="15"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="13"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="15"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="13"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="12">
+      <c r="E134" s="7"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="10">
         <f>SUM(G128:G133)</f>
-        <v>10</v>
-      </c>
-      <c r="H134" s="12"/>
-      <c r="I134" s="8">
+        <v>13</v>
+      </c>
+      <c r="H134" s="10"/>
+      <c r="I134" s="7">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="8"/>
+      <c r="J134" s="7"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2">
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1">
         <f>SUM(G110,G86,G98,G74,G62,G50,G39,G27,G122,G134,G18)</f>
-        <v>146</v>
-      </c>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2">
+        <v>149</v>
+      </c>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1">
         <f>SUM(I110,I98,I86,I74,I62,I50,I39,I27,I122,I134,I18)</f>
         <v>372.8</v>
       </c>
-      <c r="J135" s="2"/>
+      <c r="J135" s="1"/>
     </row>
     <row r="136" spans="4:10">
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="16" t="s">
+      <c r="D137" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="17">
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="15">
         <f>I135/G135</f>
-        <v>2.55342465753425</v>
-      </c>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
+        <v>2.50201342281879</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="214">
@@ -3738,1883 +3721,1883 @@
   </cols>
   <sheetData>
     <row r="8" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="14">
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="12">
         <f>I18/G18</f>
         <v>16.590625</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:10">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="14"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" customFormat="1" spans="4:10">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" customFormat="1" spans="4:10">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" customFormat="1" spans="4:10">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10">
-        <v>3</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="8">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9">
         <v>16.8</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <f t="shared" ref="I12:I17" si="0">G12*H12</f>
         <v>50.4</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" customFormat="1" spans="4:10">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="10">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <v>17.8</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" customFormat="1" spans="4:10">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="10">
-        <v>3</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8">
         <v>17.6</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" customFormat="1" spans="4:10">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="10">
-        <v>3</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="8">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8">
         <v>16.55</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>49.65</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" customFormat="1" spans="4:10">
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="10">
-        <v>3</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="8">
+        <v>3</v>
+      </c>
+      <c r="H16" s="8">
         <v>15</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" customFormat="1" spans="4:10">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="10">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="8">
         <v>2</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <v>16</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" customFormat="1" spans="4:10">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="12">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="10">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="8">
+      <c r="H18" s="10"/>
+      <c r="I18" s="7">
         <f>SUM(I12:I17)</f>
         <v>265.45</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="14">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="12">
         <f>I27/G27</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="4:10">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="14"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" customFormat="1" spans="4:10">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="14"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" customFormat="1" spans="4:10">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" customFormat="1" spans="4:10">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" customFormat="1" spans="4:10">
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="6" t="str">
         <f>'EXPECTED RESULTS'!D24</f>
         <v>DBMS</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="13">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="11">
         <f>'EXPECTED RESULTS'!G24</f>
         <v>3</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="15">
+      <c r="H24" s="11"/>
+      <c r="I24" s="13">
         <f>G24*H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" customFormat="1" spans="4:10">
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="6" t="str">
         <f>'EXPECTED RESULTS'!D25</f>
         <v>Computer Maintenance</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="13">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="11">
         <f>'EXPECTED RESULTS'!G25</f>
         <v>3</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="15">
+      <c r="H25" s="11"/>
+      <c r="I25" s="13">
         <f>G25*H25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" customFormat="1" spans="4:10">
-      <c r="D26" s="7" t="str">
+      <c r="D26" s="6" t="str">
         <f>'EXPECTED RESULTS'!D26</f>
         <v>Digital computer Fundamentals</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="13">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="11">
         <f>'EXPECTED RESULTS'!G26</f>
         <v>3</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="15">
+      <c r="H26" s="11"/>
+      <c r="I26" s="13">
         <f>G26*H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" customFormat="1" spans="4:10">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="12">
+      <c r="E27" s="7"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="10">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="8">
+      <c r="H27" s="10"/>
+      <c r="I27" s="7">
         <f>SUM(I24:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="14">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="12">
         <f>I39/G39</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="4:10">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="14"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" customFormat="1" spans="4:10">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="14"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" customFormat="1" spans="4:10">
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" customFormat="1" spans="4:10">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" customFormat="1" spans="4:10">
-      <c r="D33" s="7" t="str">
+      <c r="D33" s="6" t="str">
         <f>'EXPECTED RESULTS'!D33</f>
         <v>Academic English Writing</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="13">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="11">
         <f>'EXPECTED RESULTS'!G33</f>
         <v>3</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="15">
+      <c r="H33" s="11"/>
+      <c r="I33" s="13">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="15"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" customFormat="1" spans="4:10">
-      <c r="D34" s="7" t="str">
+      <c r="D34" s="6" t="str">
         <f>'EXPECTED RESULTS'!D34</f>
         <v>Intro to Computer Programming</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="13">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="11">
         <f>'EXPECTED RESULTS'!G34</f>
         <v>4</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="15">
+      <c r="H34" s="11"/>
+      <c r="I34" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="15"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" customFormat="1" spans="4:13">
-      <c r="D35" s="7" t="str">
+      <c r="D35" s="6" t="str">
         <f>'EXPECTED RESULTS'!D35</f>
         <v>Bible Doctrine</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="13">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="11">
         <f>'EXPECTED RESULTS'!G35</f>
         <v>3</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="15">
+      <c r="H35" s="11"/>
+      <c r="I35" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="36" customFormat="1" spans="4:10">
-      <c r="D36" s="7" t="str">
+      <c r="D36" s="6" t="str">
         <f>'EXPECTED RESULTS'!D36</f>
         <v>Descrptive Statistics</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="13">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="11">
         <f>'EXPECTED RESULTS'!G36</f>
         <v>3</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="15">
+      <c r="H36" s="11"/>
+      <c r="I36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="15"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" customFormat="1" spans="4:10">
-      <c r="D37" s="7" t="str">
+      <c r="D37" s="6" t="str">
         <f>'EXPECTED RESULTS'!D37</f>
         <v>Management Information System</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="13">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="11">
         <f>'EXPECTED RESULTS'!G37</f>
         <v>3</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="15">
+      <c r="H37" s="11"/>
+      <c r="I37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="15"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" customFormat="1" spans="4:10">
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="15">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="15"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" customFormat="1" spans="4:10">
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="12">
+      <c r="E39" s="7"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="10">
         <f>SUM(G33:G38)</f>
         <v>16</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="8">
+      <c r="H39" s="10"/>
+      <c r="I39" s="7">
         <f>SUM(I33:I38)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="8"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="14">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="12">
         <f>I50/G50</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="4:10">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="14"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" customFormat="1" spans="4:10">
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" customFormat="1" spans="4:10">
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="H43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="2"/>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" customFormat="1" spans="4:10">
-      <c r="D44" s="7" t="str">
+      <c r="D44" s="6" t="str">
         <f>'EXPECTED RESULTS'!D44</f>
         <v>Probability and statistic</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="13">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="11">
         <f>'EXPECTED RESULTS'!G44</f>
         <v>3</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="15">
-        <f>G44*H44</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="15"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="13">
+        <f t="shared" ref="I44:I49" si="2">G44*H44</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" customFormat="1" spans="4:10">
-      <c r="D45" s="7" t="str">
+      <c r="D45" s="6" t="str">
         <f>'EXPECTED RESULTS'!D45</f>
         <v>Database Development with PL/SQL</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="13">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="11">
         <f>'EXPECTED RESULTS'!G45</f>
         <v>4</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="15">
-        <f>G45*H45</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="15"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" customFormat="1" spans="4:10">
-      <c r="D46" s="7" t="str">
+      <c r="D46" s="6" t="str">
         <f>'EXPECTED RESULTS'!D46</f>
         <v>Programming with C</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="13">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="11">
         <f>'EXPECTED RESULTS'!G46</f>
         <v>4</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="15">
-        <f>G46*H46</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="15"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" customFormat="1" spans="4:10">
-      <c r="D47" s="7" t="str">
+      <c r="D47" s="6" t="str">
         <f>'EXPECTED RESULTS'!D47</f>
         <v>Computer Networks</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="13">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="11">
         <f>'EXPECTED RESULTS'!G47</f>
         <v>4</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="15">
-        <f>G47*H47</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="15"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" customFormat="1" spans="4:10">
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="15">
-        <f>G48*H48</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="15"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" customFormat="1" spans="4:10">
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="15">
-        <f>G49*H49</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="15"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" customFormat="1" spans="4:10">
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="12">
+      <c r="E50" s="7"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="10">
         <f>SUM(G44:G49)</f>
         <v>15</v>
       </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="8">
+      <c r="H50" s="10"/>
+      <c r="I50" s="7">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="8"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D51" s="2" t="str">
+      <c r="D51" s="1" t="str">
         <f>'EXPECTED RESULTS'!D51</f>
         <v>SEMESTER-5-SUMMER</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="14">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="12">
         <f>I62/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="4:10">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="14"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" customFormat="1" spans="4:10">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="14"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" customFormat="1" spans="4:10">
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
     </row>
     <row r="55" customFormat="1" spans="4:10">
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="H55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="56" customFormat="1" spans="4:10">
-      <c r="D56" s="7" t="str">
+      <c r="D56" s="6" t="str">
         <f>'EXPECTED RESULTS'!D56</f>
         <v>English Phonology</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="13">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="11">
         <f>'EXPECTED RESULTS'!G56</f>
         <v>3</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="15">
-        <f t="shared" ref="I56:I61" si="2">G56*H56</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="15"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="13">
+        <f t="shared" ref="I56:I61" si="3">G56*H56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" customFormat="1" spans="4:10">
-      <c r="D57" s="7" t="str">
+      <c r="D57" s="6" t="str">
         <f>'EXPECTED RESULTS'!D57</f>
         <v>Web Design</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="13">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="11">
         <f>'EXPECTED RESULTS'!G57</f>
         <v>3</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="15"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" customFormat="1" spans="4:10">
-      <c r="D58" s="7" t="str">
+      <c r="D58" s="6" t="str">
         <f>'EXPECTED RESULTS'!D58</f>
         <v>Multvaliable Calculus and ODE</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="13">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="11">
         <f>'EXPECTED RESULTS'!G58</f>
         <v>4</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="15"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" customFormat="1" spans="4:10">
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="15"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" customFormat="1" spans="4:10">
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="15"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" customFormat="1" spans="4:10">
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="15"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" customFormat="1" spans="4:10">
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="12">
+      <c r="E62" s="7"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="10">
         <f>SUM(G56:G61)</f>
         <v>10</v>
       </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="8">
+      <c r="H62" s="10"/>
+      <c r="I62" s="7">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="8"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="14">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="12">
         <f>I74/G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="4:10">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="14"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" customFormat="1" spans="4:10">
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="14"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="12"/>
     </row>
     <row r="66" customFormat="1" spans="4:10">
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
     </row>
     <row r="67" customFormat="1" spans="4:10">
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="H67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" customFormat="1" spans="4:10">
-      <c r="D68" s="7" t="str">
+      <c r="D68" s="6" t="str">
         <f>'EXPECTED RESULTS'!D68</f>
         <v>English Proficiency I</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="13">
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="11">
         <f>'EXPECTED RESULTS'!G68</f>
         <v>3</v>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="15">
-        <f t="shared" ref="I68:I73" si="3">G68*H68</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="15"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="13">
+        <f t="shared" ref="I68:I73" si="4">G68*H68</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="13"/>
     </row>
     <row r="69" customFormat="1" spans="4:10">
-      <c r="D69" s="7" t="str">
+      <c r="D69" s="6" t="str">
         <f>'EXPECTED RESULTS'!D69</f>
-        <v>Data Structure and Algorthims</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="13">
+        <v>Data Structure and Algorthim</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="11">
         <f>'EXPECTED RESULTS'!G69</f>
         <v>4</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="15"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="13"/>
     </row>
     <row r="70" customFormat="1" spans="4:10">
-      <c r="D70" s="7" t="str">
+      <c r="D70" s="6" t="str">
         <f>'EXPECTED RESULTS'!D70</f>
         <v>Theory of Computation</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="13">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="11">
         <f>'EXPECTED RESULTS'!G70</f>
         <v>3</v>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="15"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" customFormat="1" spans="4:10">
-      <c r="D71" s="7" t="str">
+      <c r="D71" s="6" t="str">
         <f>'EXPECTED RESULTS'!D71</f>
         <v>Software Engineering</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="13">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="11">
         <f>'EXPECTED RESULTS'!G71</f>
         <v>3</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="15"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" customFormat="1" spans="4:10">
-      <c r="D72" s="7" t="str">
+      <c r="D72" s="6" t="str">
         <f>'EXPECTED RESULTS'!D72</f>
         <v>Emerging technology</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="13">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="11">
         <f>'EXPECTED RESULTS'!G72</f>
         <v>3</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="15"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" customFormat="1" spans="4:10">
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="15"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="13"/>
     </row>
     <row r="74" customFormat="1" spans="4:10">
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="12">
+      <c r="E74" s="7"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="10">
         <f>SUM(G68:G73)</f>
         <v>16</v>
       </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="8">
+      <c r="H74" s="10"/>
+      <c r="I74" s="7">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="8"/>
+      <c r="J74" s="7"/>
     </row>
     <row r="75" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="14">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="12">
         <f>I86/G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="4:10">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="14"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="12"/>
     </row>
     <row r="77" customFormat="1" spans="4:10">
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="14"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="12"/>
     </row>
     <row r="78" customFormat="1" spans="4:10">
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
     </row>
     <row r="79" customFormat="1" spans="4:10">
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2" t="s">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I79" s="2" t="s">
+      <c r="H79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="2"/>
+      <c r="J79" s="1"/>
     </row>
     <row r="80" customFormat="1" spans="4:10">
-      <c r="D80" s="7" t="str">
+      <c r="D80" s="6" t="str">
         <f>'EXPECTED RESULTS'!D80</f>
         <v>English Proficiency II</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="13">
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="11">
         <f>'EXPECTED RESULTS'!G80</f>
         <v>3</v>
       </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="15">
-        <f t="shared" ref="I80:I85" si="4">G80*H80</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="15"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="13">
+        <f t="shared" ref="I80:I85" si="5">G80*H80</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="13"/>
     </row>
     <row r="81" customFormat="1" spans="4:10">
-      <c r="D81" s="7" t="str">
+      <c r="D81" s="6" t="str">
         <f>'EXPECTED RESULTS'!D81</f>
         <v>Java Programming</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="13">
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="11">
         <f>'EXPECTED RESULTS'!G81</f>
         <v>4</v>
       </c>
-      <c r="H81" s="13"/>
-      <c r="I81" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="15"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="13"/>
     </row>
     <row r="82" customFormat="1" spans="4:10">
-      <c r="D82" s="7" t="str">
+      <c r="D82" s="6" t="str">
         <f>'EXPECTED RESULTS'!D82</f>
         <v>Health Principles</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="13">
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="11">
         <f>'EXPECTED RESULTS'!G82</f>
         <v>2</v>
       </c>
-      <c r="H82" s="13"/>
-      <c r="I82" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="15"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="13"/>
     </row>
     <row r="83" customFormat="1" spans="4:10">
-      <c r="D83" s="7" t="str">
+      <c r="D83" s="6" t="str">
         <f>'EXPECTED RESULTS'!D83</f>
         <v>Software Project Management</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="13">
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="11">
         <f>'EXPECTED RESULTS'!G83</f>
         <v>3</v>
       </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="15"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" customFormat="1" spans="4:10">
-      <c r="D84" s="7" t="str">
+      <c r="D84" s="6" t="str">
         <f>'EXPECTED RESULTS'!D84</f>
         <v>Object Oriented Programming</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="13">
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="11">
         <f>'EXPECTED RESULTS'!G84</f>
         <v>4</v>
       </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="15"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" customFormat="1" spans="4:10">
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="15"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="13"/>
     </row>
     <row r="86" customFormat="1" spans="4:10">
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="12">
+      <c r="E86" s="7"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="10">
         <f>SUM(G80:G85)</f>
         <v>16</v>
       </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="8">
+      <c r="H86" s="10"/>
+      <c r="I86" s="7">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="8"/>
+      <c r="J86" s="7"/>
     </row>
     <row r="87" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D87" s="2" t="str">
+      <c r="D87" s="1" t="str">
         <f>'EXPECTED RESULTS'!D87</f>
         <v>SEMESTER-8-SUMMER</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="14">
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="12">
         <f>I98/G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="4:10">
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="14"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="12"/>
     </row>
     <row r="89" customFormat="1" spans="4:10">
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="14"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="12"/>
     </row>
     <row r="90" customFormat="1" spans="4:10">
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
     </row>
     <row r="91" customFormat="1" spans="4:10">
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2" t="s">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="2" t="s">
+      <c r="H91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="2"/>
+      <c r="J91" s="1"/>
     </row>
     <row r="92" customFormat="1" spans="4:10">
-      <c r="D92" s="7" t="str">
+      <c r="D92" s="6" t="str">
         <f>'EXPECTED RESULTS'!D92</f>
         <v>Big Data</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="13">
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="11">
         <f>'EXPECTED RESULTS'!G92</f>
         <v>3</v>
       </c>
-      <c r="H92" s="13"/>
-      <c r="I92" s="15">
-        <f t="shared" ref="I92:I97" si="5">G92*H92</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="15"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="13">
+        <f t="shared" ref="I92:I97" si="6">G92*H92</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="13"/>
     </row>
     <row r="93" customFormat="1" spans="4:10">
-      <c r="D93" s="7" t="str">
+      <c r="D93" s="6" t="str">
         <f>'EXPECTED RESULTS'!D93</f>
         <v>Operating systems</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="13">
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="11">
         <f>'EXPECTED RESULTS'!G93</f>
         <v>4</v>
       </c>
-      <c r="H93" s="13"/>
-      <c r="I93" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="15"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="13"/>
     </row>
     <row r="94" customFormat="1" spans="4:10">
-      <c r="D94" s="7" t="str">
+      <c r="D94" s="6" t="str">
         <f>'EXPECTED RESULTS'!D94</f>
         <v>Best Progr.Practice Design Patterns</v>
       </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="13">
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="11">
         <f>'EXPECTED RESULTS'!G94</f>
         <v>3</v>
       </c>
-      <c r="H94" s="13"/>
-      <c r="I94" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="15"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="13"/>
     </row>
     <row r="95" customFormat="1" spans="4:10">
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="15"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="13"/>
     </row>
     <row r="96" customFormat="1" spans="4:10">
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="15"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="13"/>
     </row>
     <row r="97" customFormat="1" spans="4:10">
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="15"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" customFormat="1" spans="4:10">
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="12">
+      <c r="E98" s="7"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="10">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
-      <c r="H98" s="12"/>
-      <c r="I98" s="8">
+      <c r="H98" s="10"/>
+      <c r="I98" s="7">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="8"/>
+      <c r="J98" s="7"/>
     </row>
     <row r="99" customFormat="1" spans="4:10">
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="14">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="12">
         <f>I110/G110</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="4:10">
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="14"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="12"/>
     </row>
     <row r="101" customFormat="1" spans="4:10">
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="14"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="12"/>
     </row>
     <row r="102" customFormat="1" spans="4:10">
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
     </row>
     <row r="103" customFormat="1" spans="4:10">
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2" t="s">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I103" s="2" t="s">
+      <c r="H103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J103" s="2"/>
+      <c r="J103" s="1"/>
     </row>
     <row r="104" customFormat="1" spans="4:10">
-      <c r="D104" s="7" t="str">
+      <c r="D104" s="6" t="str">
         <f>'EXPECTED RESULTS'!D104</f>
         <v>Introduction to linux</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="13">
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="11">
         <f>'EXPECTED RESULTS'!G104</f>
         <v>3</v>
       </c>
-      <c r="H104" s="13"/>
-      <c r="I104" s="15">
-        <f t="shared" ref="I104:I109" si="6">G104*H104</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="15"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="13">
+        <f t="shared" ref="I104:I109" si="7">G104*H104</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="13"/>
     </row>
     <row r="105" customFormat="1" spans="4:10">
-      <c r="D105" s="7" t="str">
+      <c r="D105" s="6" t="str">
         <f>'EXPECTED RESULTS'!D105</f>
         <v>Philosophy Science and Religion</v>
       </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="13">
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="11">
         <f>'EXPECTED RESULTS'!G105</f>
         <v>2</v>
       </c>
-      <c r="H105" s="13"/>
-      <c r="I105" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="15"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="13"/>
     </row>
     <row r="106" customFormat="1" spans="4:10">
-      <c r="D106" s="7" t="str">
+      <c r="D106" s="6" t="str">
         <f>'EXPECTED RESULTS'!D106</f>
         <v>Software Security</v>
       </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="13">
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="11">
         <f>'EXPECTED RESULTS'!G106</f>
         <v>3</v>
       </c>
-      <c r="H106" s="13"/>
-      <c r="I106" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="15"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="13"/>
     </row>
     <row r="107" customFormat="1" spans="4:10">
-      <c r="D107" s="7" t="str">
+      <c r="D107" s="6" t="str">
         <f>'EXPECTED RESULTS'!D107</f>
         <v>Introduction to Big Data</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="13">
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="11">
         <f>'EXPECTED RESULTS'!G107</f>
         <v>3</v>
       </c>
-      <c r="H107" s="13"/>
-      <c r="I107" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="15"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="13"/>
     </row>
     <row r="108" customFormat="1" spans="4:10">
-      <c r="D108" s="7" t="str">
+      <c r="D108" s="6" t="str">
         <f>'EXPECTED RESULTS'!D108</f>
         <v>Software Quality Assurance</v>
       </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="13">
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="11">
         <f>'EXPECTED RESULTS'!G108</f>
         <v>3</v>
       </c>
-      <c r="H108" s="13"/>
-      <c r="I108" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="15"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="13"/>
     </row>
     <row r="109" customFormat="1" spans="4:10">
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="15"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="13"/>
     </row>
     <row r="110" customFormat="1" spans="4:10">
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="12">
+      <c r="E110" s="7"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="10">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="8">
+      <c r="H110" s="10"/>
+      <c r="I110" s="7">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="8"/>
+      <c r="J110" s="7"/>
     </row>
     <row r="111" customFormat="1" spans="4:10">
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="14">
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="12">
         <f>I122/G122</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="4:10">
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="14"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="12"/>
     </row>
     <row r="113" customFormat="1" spans="4:10">
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="14"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="12"/>
     </row>
     <row r="114" customFormat="1" spans="4:10">
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
     </row>
     <row r="115" spans="4:10">
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2" t="s">
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I115" s="2" t="s">
+      <c r="H115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="2"/>
+      <c r="J115" s="1"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="15">
-        <f t="shared" ref="I116:I121" si="7">G116*H116</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="15"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="13">
+        <f t="shared" ref="I116:I121" si="8">G116*H116</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="13"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="7" t="str">
+      <c r="D117" s="6" t="str">
         <f>'EXPECTED RESULTS'!D117</f>
         <v>Web Technology and Internet</v>
       </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="13">
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="11">
         <f>'EXPECTED RESULTS'!G117</f>
         <v>4</v>
       </c>
-      <c r="H117" s="13"/>
-      <c r="I117" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="15"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="13"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="7" t="str">
+      <c r="D118" s="6" t="str">
         <f>'EXPECTED RESULTS'!D118</f>
         <v>Mobile Programing</v>
       </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="13">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="11">
         <f>'EXPECTED RESULTS'!G118</f>
         <v>4</v>
       </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="15"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="13"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="7" t="str">
+      <c r="D119" s="6" t="str">
         <f>'EXPECTED RESULTS'!D119</f>
         <v>Probability and statistic &amp; Reliability</v>
       </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="13">
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="11">
         <f>'EXPECTED RESULTS'!G119</f>
         <v>3</v>
       </c>
-      <c r="H119" s="13"/>
-      <c r="I119" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="15"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="13"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="15"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="13"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="15"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="13"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="12">
+      <c r="E122" s="7"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="10">
         <f>SUM(G116:G121)</f>
         <v>11</v>
       </c>
-      <c r="H122" s="12"/>
-      <c r="I122" s="8">
+      <c r="H122" s="10"/>
+      <c r="I122" s="7">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="8"/>
+      <c r="J122" s="7"/>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="14">
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="12">
         <f>I134/G134</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="14"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="12"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="14"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="12"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
     </row>
     <row r="127" spans="4:10">
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2" t="s">
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I127" s="2" t="s">
+      <c r="H127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J127" s="2"/>
+      <c r="J127" s="1"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="15">
-        <f t="shared" ref="I128:I133" si="8">G128*H128</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="15"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="13">
+        <f t="shared" ref="I128:I133" si="9">G128*H128</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="13"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="7" t="str">
+      <c r="D129" s="6" t="str">
         <f>'EXPECTED RESULTS'!D129</f>
         <v>Internship</v>
       </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="13">
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="11">
         <f>'EXPECTED RESULTS'!G129</f>
         <v>4</v>
       </c>
-      <c r="H129" s="13"/>
-      <c r="I129" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="15"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="13"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="7" t="str">
+      <c r="D130" s="6" t="str">
         <f>'EXPECTED RESULTS'!D130</f>
         <v>Final Year Project</v>
       </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="13">
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="11">
         <f>'EXPECTED RESULTS'!G130</f>
         <v>6</v>
       </c>
-      <c r="H130" s="13"/>
-      <c r="I130" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="15"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="13"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="15"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="13"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="15"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="13"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="15"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="13"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="12">
+      <c r="E134" s="7"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="10">
         <f>SUM(G128:G133)</f>
         <v>10</v>
       </c>
-      <c r="H134" s="12"/>
-      <c r="I134" s="8">
+      <c r="H134" s="10"/>
+      <c r="I134" s="7">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="8"/>
+      <c r="J134" s="7"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2">
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1">
         <f>SUM(G134,G122,G110,G98,G86,G74,G62,G50,G39,G27,G18,)</f>
         <v>143</v>
       </c>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2">
+      <c r="H135" s="1"/>
+      <c r="I135" s="1">
         <f>SUM(I134,I122,I110,I98,I86,,I74,I62,I50,I39,I27,I18)</f>
         <v>265.45</v>
       </c>
-      <c r="J135" s="2"/>
+      <c r="J135" s="1"/>
     </row>
     <row r="136" spans="4:10">
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="16" t="s">
+      <c r="D137" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="17">
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="15">
         <f>I135/G135</f>
         <v>1.85629370629371</v>
       </c>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="211">
@@ -5912,10 +5895,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -5924,323 +5907,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>107</v>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12450"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EXPECTED RESULTS" sheetId="1" r:id="rId1"/>
     <sheet name="FINAL RESULT" sheetId="2" r:id="rId2"/>
     <sheet name="COURSES" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="96">
   <si>
     <t>SEMESTER-1</t>
   </si>
@@ -66,151 +79,155 @@
     <t>SEMESTER-3</t>
   </si>
   <si>
+    <t>Multvaliable Calculus and ODE</t>
+  </si>
+  <si>
+    <t>Intro to Computer Programming</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>Descrptive Statistics</t>
+  </si>
+  <si>
+    <t>Computer Networks</t>
+  </si>
+  <si>
+    <t>SEMESTER-4</t>
+  </si>
+  <si>
+    <t>Probability and statistic</t>
+  </si>
+  <si>
+    <t>Database Development with PL/SQL</t>
+  </si>
+  <si>
+    <t>Programming with C</t>
+  </si>
+  <si>
+    <t>SEMESTER-5-SUMMER</t>
+  </si>
+  <si>
+    <t>English Phonology</t>
+  </si>
+  <si>
+    <t>Web Design</t>
+  </si>
+  <si>
+    <t>SEMESTER-6</t>
+  </si>
+  <si>
+    <t>English Proficiency I</t>
+  </si>
+  <si>
+    <t>Data Structure and Algorthim</t>
+  </si>
+  <si>
+    <t>Theory of Computation</t>
+  </si>
+  <si>
+    <t>Emerging technology</t>
+  </si>
+  <si>
+    <t>SEMESTER-7</t>
+  </si>
+  <si>
+    <t>English Proficiency II</t>
+  </si>
+  <si>
+    <t>Java Programming</t>
+  </si>
+  <si>
+    <t>Health Principles</t>
+  </si>
+  <si>
+    <t>Software Project Management</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming</t>
+  </si>
+  <si>
+    <t>SEMESTER-8-SUMMER</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Operating systems</t>
+  </si>
+  <si>
+    <t>Best Progr.Practice Design Patterns</t>
+  </si>
+  <si>
+    <t>SEMESTER-9</t>
+  </si>
+  <si>
+    <t>Introduction to linux</t>
+  </si>
+  <si>
+    <t>Philosophy Science and Religion</t>
+  </si>
+  <si>
+    <t>Software Security</t>
+  </si>
+  <si>
+    <t>Introduction to Big Data</t>
+  </si>
+  <si>
+    <t>Software Quality Assurance</t>
+  </si>
+  <si>
+    <t>SEMESTER-10</t>
+  </si>
+  <si>
+    <t>English speking Skilss</t>
+  </si>
+  <si>
+    <t>Web Technology and Internet</t>
+  </si>
+  <si>
+    <t>Mobile Programing</t>
+  </si>
+  <si>
+    <t>Probability and statistic &amp; Reliability</t>
+  </si>
+  <si>
+    <t>SEMESTER-11-SUMMER</t>
+  </si>
+  <si>
+    <t>Introduction to Linux Adminstration</t>
+  </si>
+  <si>
+    <t>Internship</t>
+  </si>
+  <si>
+    <t>Final Year Project</t>
+  </si>
+  <si>
+    <t>TOTAL ALL SEMESTERS</t>
+  </si>
+  <si>
+    <t>TOTAL MARKS /20</t>
+  </si>
+  <si>
+    <t>TOTAL CREDITS</t>
+  </si>
+  <si>
+    <t>SEMESTER-2-SUMMER</t>
+  </si>
+  <si>
     <t>Academic English Writing</t>
   </si>
   <si>
-    <t>Intro to Computer Programming</t>
-  </si>
-  <si>
-    <t>Bible Doctrine</t>
-  </si>
-  <si>
-    <t>Descrptive Statistics</t>
-  </si>
-  <si>
-    <t>Management Information System</t>
-  </si>
-  <si>
-    <t>SEMESTER-4</t>
-  </si>
-  <si>
-    <t>Probability and statistic</t>
-  </si>
-  <si>
-    <t>Database Development with PL/SQL</t>
-  </si>
-  <si>
-    <t>Programming with C</t>
-  </si>
-  <si>
-    <t>Computer Networks</t>
-  </si>
-  <si>
-    <t>SEMESTER-5-SUMMER</t>
-  </si>
-  <si>
-    <t>English Phonology</t>
-  </si>
-  <si>
-    <t>Web Design</t>
-  </si>
-  <si>
-    <t>Multvaliable Calculus and ODE</t>
-  </si>
-  <si>
-    <t>SEMESTER-6</t>
-  </si>
-  <si>
-    <t>English Proficiency I</t>
-  </si>
-  <si>
-    <t>Data Structure and Algorthim</t>
-  </si>
-  <si>
-    <t>Theory of Computation</t>
-  </si>
-  <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
-    <t>Emerging technology</t>
-  </si>
-  <si>
-    <t>SEMESTER-7</t>
-  </si>
-  <si>
-    <t>English Proficiency II</t>
-  </si>
-  <si>
-    <t>Java Programming</t>
-  </si>
-  <si>
-    <t>Health Principles</t>
-  </si>
-  <si>
-    <t>Software Project Management</t>
-  </si>
-  <si>
-    <t>Object Oriented Programming</t>
-  </si>
-  <si>
-    <t>SEMESTER-8-SUMMER</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
-    <t>Operating systems</t>
-  </si>
-  <si>
-    <t>Best Progr.Practice Design Patterns</t>
-  </si>
-  <si>
-    <t>SEMESTER-9</t>
-  </si>
-  <si>
-    <t>Introduction to linux</t>
-  </si>
-  <si>
-    <t>Philosophy Science and Religion</t>
-  </si>
-  <si>
-    <t>Software Security</t>
-  </si>
-  <si>
-    <t>Introduction to Big Data</t>
-  </si>
-  <si>
-    <t>Software Quality Assurance</t>
-  </si>
-  <si>
-    <t>SEMESTER-10</t>
-  </si>
-  <si>
-    <t>English speking Skilss</t>
-  </si>
-  <si>
-    <t>Web Technology and Internet</t>
-  </si>
-  <si>
-    <t>Mobile Programing</t>
-  </si>
-  <si>
-    <t>Probability and statistic &amp; Reliability</t>
-  </si>
-  <si>
-    <t>SEMESTER-11-SUMMER</t>
-  </si>
-  <si>
-    <t>Introduction to Linux Adminstration</t>
-  </si>
-  <si>
-    <t>Internship</t>
-  </si>
-  <si>
-    <t>Final Year Project</t>
-  </si>
-  <si>
-    <t>TOTAL ALL SEMESTERS</t>
-  </si>
-  <si>
-    <t>TOTAL MARKS /20</t>
-  </si>
-  <si>
-    <t>SEMESTER-2-SUMMER</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Advanced Software Modeling and Design </t>
     </r>
     <r>
@@ -281,6 +298,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Internship </t>
     </r>
     <r>
@@ -338,13 +362,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -394,18 +418,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,15 +434,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -441,6 +450,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -449,15 +474,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,12 +498,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -486,31 +519,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,7 +541,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,13 +589,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,31 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +649,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,109 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,21 +777,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -836,17 +864,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,152 +879,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,31 +1037,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1046,63 +1070,69 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1145,8 +1175,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
@@ -1165,8 +1195,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="9525"/>
-          <a:ext cx="5800725" cy="1285240"/>
+          <a:off x="1844040" y="9525"/>
+          <a:ext cx="4281805" cy="1247140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1212,8 +1242,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="9525"/>
-          <a:ext cx="5800725" cy="1285240"/>
+          <a:off x="1844040" y="9525"/>
+          <a:ext cx="4256405" cy="1247140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1254,8 +1284,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="9525"/>
-          <a:ext cx="5800725" cy="1285240"/>
+          <a:off x="1844040" y="9525"/>
+          <a:ext cx="4256405" cy="1247140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1296,8 +1326,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="9525"/>
-          <a:ext cx="5800725" cy="1285240"/>
+          <a:off x="1844040" y="9525"/>
+          <a:ext cx="4256405" cy="1247140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1571,19 +1601,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D8:S138"/>
+  <dimension ref="D8:S140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119:J119"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="F139" sqref="G139:J140 D139:F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="9.3"/>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" customHeight="1" spans="4:10">
+    <row r="8" ht="15" customHeight="1" spans="4:10">
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1645,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="4:10">
+    <row r="11" ht="26" spans="4:10">
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1638,10 +1668,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="8">
-        <v>3</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
         <v>12</v>
       </c>
       <c r="I12" s="13">
@@ -1656,10 +1686,10 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="4">
         <v>15</v>
       </c>
       <c r="I13" s="13">
@@ -1674,10 +1704,10 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="8">
-        <v>3</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4">
         <v>14</v>
       </c>
       <c r="I14" s="13">
@@ -1692,10 +1722,10 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="8">
-        <v>3</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
         <v>14.9</v>
       </c>
       <c r="I15" s="13">
@@ -1710,10 +1740,10 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="8">
-        <v>3</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
         <v>14</v>
       </c>
       <c r="I16" s="13">
@@ -1728,10 +1758,10 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="4">
         <v>14.8</v>
       </c>
       <c r="I17" s="13">
@@ -1741,23 +1771,23 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="10">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7">
+      <c r="H18" s="7"/>
+      <c r="I18" s="11">
         <f>SUM(I12:I17)</f>
         <v>224.3</v>
       </c>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" customHeight="1" spans="4:10">
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="4:10">
       <c r="D19" s="1" t="str">
         <f>'FINAL RESULT'!D19</f>
         <v>SEMESTER-2-SUMMER</v>
@@ -1791,15 +1821,15 @@
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="4:10">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" ht="26" spans="4:10">
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1817,15 +1847,15 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="11">
-        <v>3</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10">
+        <v>3</v>
+      </c>
+      <c r="H24" s="10">
         <v>17</v>
       </c>
       <c r="I24" s="13">
@@ -1835,15 +1865,15 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="11">
-        <v>3</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10">
+        <v>3</v>
+      </c>
+      <c r="H25" s="10">
         <v>16.5</v>
       </c>
       <c r="I25" s="13">
@@ -1853,15 +1883,15 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="11">
-        <v>3</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10">
+        <v>3</v>
+      </c>
+      <c r="H26" s="10">
         <v>16</v>
       </c>
       <c r="I26" s="13">
@@ -1871,23 +1901,23 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="10">
+      <c r="E27" s="11"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="7">
+      <c r="H27" s="7"/>
+      <c r="I27" s="11">
         <f>SUM(I24:I26)</f>
         <v>148.5</v>
       </c>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" customHeight="1" spans="4:10">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="4:10">
       <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1920,15 +1950,15 @@
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="4:10">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" ht="26" spans="4:10">
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1946,15 +1976,15 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="4:10">
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="11">
-        <v>3</v>
-      </c>
-      <c r="H33" s="11"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10">
+        <v>4</v>
+      </c>
+      <c r="H33" s="10"/>
       <c r="I33" s="13">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>0</v>
@@ -1962,15 +1992,15 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="4:10">
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="11">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10">
         <v>4</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1978,32 +2008,32 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="4:13">
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="11">
-        <v>3</v>
-      </c>
-      <c r="H35" s="11"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10">
+        <v>3</v>
+      </c>
+      <c r="H35" s="10"/>
       <c r="I35" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="13"/>
-      <c r="M35" s="11"/>
+      <c r="M35" s="10"/>
     </row>
     <row r="36" spans="4:10">
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="11">
-        <v>3</v>
-      </c>
-      <c r="H36" s="11"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10">
+        <v>3</v>
+      </c>
+      <c r="H36" s="10"/>
       <c r="I36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2011,15 +2041,15 @@
       <c r="J36" s="13"/>
     </row>
     <row r="37" spans="4:10">
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="11">
-        <v>3</v>
-      </c>
-      <c r="H37" s="11"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10">
+        <v>4</v>
+      </c>
+      <c r="H37" s="10"/>
       <c r="I37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2027,11 +2057,11 @@
       <c r="J37" s="13"/>
     </row>
     <row r="38" spans="4:10">
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2039,23 +2069,23 @@
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="4:10">
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="10">
+      <c r="E39" s="11"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7">
         <f>SUM(G33:G38)</f>
-        <v>16</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="7">
+        <v>18</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11">
         <f>SUM(I33:I38)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" customHeight="1" spans="4:10">
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="4:10">
       <c r="D40" s="1" t="s">
         <v>21</v>
       </c>
@@ -2079,15 +2109,15 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="4:10">
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="4:10">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" ht="26" spans="4:10">
       <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
@@ -2105,15 +2135,15 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="4:10">
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="11">
-        <v>3</v>
-      </c>
-      <c r="H44" s="11"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10">
+        <v>3</v>
+      </c>
+      <c r="H44" s="10"/>
       <c r="I44" s="13">
         <f t="shared" ref="I44:I49" si="2">G44*H44</f>
         <v>0</v>
@@ -2126,10 +2156,10 @@
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <v>4</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2137,15 +2167,15 @@
       <c r="J45" s="13"/>
     </row>
     <row r="46" spans="4:10">
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="11">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10">
         <v>4</v>
       </c>
-      <c r="H46" s="11"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2153,15 +2183,15 @@
       <c r="J46" s="13"/>
     </row>
     <row r="47" spans="4:10">
-      <c r="D47" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="11">
+      <c r="D47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10">
         <v>4</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2172,7 +2202,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2180,11 +2210,11 @@
       <c r="J48" s="13"/>
     </row>
     <row r="49" spans="4:10">
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2192,25 +2222,25 @@
       <c r="J49" s="13"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="10">
+      <c r="E50" s="11"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7">
         <f>SUM(G44:G49)</f>
         <v>15</v>
       </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="7">
+      <c r="H50" s="7"/>
+      <c r="I50" s="11">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" customHeight="1" spans="4:10">
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" ht="15" customHeight="1" spans="4:10">
       <c r="D51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2241,15 +2271,15 @@
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="4:10">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" ht="26" spans="4:10">
       <c r="D55" s="1" t="s">
         <v>1</v>
       </c>
@@ -2267,15 +2297,15 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="11">
-        <v>3</v>
-      </c>
-      <c r="H56" s="11"/>
+      <c r="D56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10">
+        <v>3</v>
+      </c>
+      <c r="H56" s="10"/>
       <c r="I56" s="13">
         <f t="shared" ref="I56:I61" si="3">G56*H56</f>
         <v>0</v>
@@ -2283,15 +2313,15 @@
       <c r="J56" s="13"/>
     </row>
     <row r="57" spans="4:10">
-      <c r="D57" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="11">
-        <v>3</v>
-      </c>
-      <c r="H57" s="11"/>
+      <c r="D57" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10">
+        <v>3</v>
+      </c>
+      <c r="H57" s="10"/>
       <c r="I57" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2299,15 +2329,15 @@
       <c r="J57" s="13"/>
     </row>
     <row r="58" spans="4:10">
-      <c r="D58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="11">
+      <c r="D58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10">
         <v>4</v>
       </c>
-      <c r="H58" s="11"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2315,11 +2345,11 @@
       <c r="J58" s="13"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2327,11 +2357,11 @@
       <c r="J59" s="13"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2339,11 +2369,11 @@
       <c r="J60" s="13"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2351,25 +2381,25 @@
       <c r="J61" s="13"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="10">
+      <c r="E62" s="11"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7">
         <f>SUM(G56:G61)</f>
         <v>10</v>
       </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="7">
+      <c r="H62" s="7"/>
+      <c r="I62" s="11">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" customHeight="1" spans="4:10">
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" ht="15" customHeight="1" spans="4:10">
       <c r="D63" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2400,15 +2430,15 @@
       <c r="J65" s="12"/>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="4:10">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" ht="26" spans="4:10">
       <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
@@ -2426,15 +2456,15 @@
       <c r="J67" s="1"/>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="11">
-        <v>3</v>
-      </c>
-      <c r="H68" s="11"/>
+      <c r="D68" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10">
+        <v>3</v>
+      </c>
+      <c r="H68" s="10"/>
       <c r="I68" s="13">
         <f t="shared" ref="I68:I73" si="4">G68*H68</f>
         <v>0</v>
@@ -2442,15 +2472,15 @@
       <c r="J68" s="13"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="11">
+      <c r="D69" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10">
         <v>4</v>
       </c>
-      <c r="H69" s="11"/>
+      <c r="H69" s="10"/>
       <c r="I69" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2458,15 +2488,15 @@
       <c r="J69" s="13"/>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="11">
-        <v>3</v>
-      </c>
-      <c r="H70" s="11"/>
+      <c r="D70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10">
+        <v>3</v>
+      </c>
+      <c r="H70" s="10"/>
       <c r="I70" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2474,15 +2504,15 @@
       <c r="J70" s="13"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="11">
-        <v>3</v>
-      </c>
-      <c r="H71" s="11"/>
+      <c r="D71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10">
+        <v>3</v>
+      </c>
+      <c r="H71" s="10"/>
       <c r="I71" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2490,15 +2520,15 @@
       <c r="J71" s="13"/>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="11">
-        <v>3</v>
-      </c>
-      <c r="H72" s="11"/>
+      <c r="D72" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="10">
+        <v>3</v>
+      </c>
+      <c r="H72" s="10"/>
       <c r="I72" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2506,11 +2536,11 @@
       <c r="J72" s="13"/>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2518,25 +2548,25 @@
       <c r="J73" s="13"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="10">
+      <c r="E74" s="11"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="7">
         <f>SUM(G68:G73)</f>
         <v>16</v>
       </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="7">
+      <c r="H74" s="7"/>
+      <c r="I74" s="11">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="7"/>
-    </row>
-    <row r="75" customHeight="1" spans="4:10">
+      <c r="J74" s="11"/>
+    </row>
+    <row r="75" ht="15" customHeight="1" spans="4:10">
       <c r="D75" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2567,15 +2597,15 @@
       <c r="J77" s="12"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="4:10">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" ht="26" spans="4:10">
       <c r="D79" s="1" t="s">
         <v>1</v>
       </c>
@@ -2593,15 +2623,15 @@
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="11">
-        <v>3</v>
-      </c>
-      <c r="H80" s="11"/>
+      <c r="D80" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="10">
+        <v>3</v>
+      </c>
+      <c r="H80" s="10"/>
       <c r="I80" s="13">
         <f t="shared" ref="I80:I85" si="5">G80*H80</f>
         <v>0</v>
@@ -2609,15 +2639,15 @@
       <c r="J80" s="13"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="11">
+      <c r="D81" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="10">
         <v>4</v>
       </c>
-      <c r="H81" s="11"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2625,15 +2655,15 @@
       <c r="J81" s="13"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="11">
+      <c r="D82" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="10">
         <v>2</v>
       </c>
-      <c r="H82" s="11"/>
+      <c r="H82" s="10"/>
       <c r="I82" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2641,15 +2671,15 @@
       <c r="J82" s="13"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="11">
-        <v>3</v>
-      </c>
-      <c r="H83" s="11"/>
+      <c r="D83" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="10">
+        <v>3</v>
+      </c>
+      <c r="H83" s="10"/>
       <c r="I83" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2657,15 +2687,15 @@
       <c r="J83" s="13"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="11">
+      <c r="D84" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="10">
         <v>4</v>
       </c>
-      <c r="H84" s="11"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2673,11 +2703,11 @@
       <c r="J84" s="13"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2685,25 +2715,25 @@
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="10">
+      <c r="E86" s="11"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="7">
         <f>SUM(G80:G85)</f>
         <v>16</v>
       </c>
-      <c r="H86" s="10"/>
-      <c r="I86" s="7">
+      <c r="H86" s="7"/>
+      <c r="I86" s="11">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87" customHeight="1" spans="4:10">
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" ht="15" customHeight="1" spans="4:10">
       <c r="D87" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2734,15 +2764,15 @@
       <c r="J89" s="12"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="4:10">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+    </row>
+    <row r="91" ht="26" spans="4:10">
       <c r="D91" s="1" t="s">
         <v>1</v>
       </c>
@@ -2760,15 +2790,15 @@
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="11">
-        <v>3</v>
-      </c>
-      <c r="H92" s="11"/>
+      <c r="D92" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="10">
+        <v>3</v>
+      </c>
+      <c r="H92" s="10"/>
       <c r="I92" s="13">
         <f t="shared" ref="I92:I97" si="6">G92*H92</f>
         <v>0</v>
@@ -2776,15 +2806,15 @@
       <c r="J92" s="13"/>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="11">
+      <c r="D93" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="10">
         <v>4</v>
       </c>
-      <c r="H93" s="11"/>
+      <c r="H93" s="10"/>
       <c r="I93" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2792,15 +2822,15 @@
       <c r="J93" s="13"/>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="11">
-        <v>3</v>
-      </c>
-      <c r="H94" s="11"/>
+      <c r="D94" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="10">
+        <v>3</v>
+      </c>
+      <c r="H94" s="10"/>
       <c r="I94" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2808,11 +2838,11 @@
       <c r="J94" s="13"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
       <c r="I95" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2820,11 +2850,11 @@
       <c r="J95" s="13"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
       <c r="I96" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2832,11 +2862,11 @@
       <c r="J96" s="13"/>
     </row>
     <row r="97" spans="4:10">
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
       <c r="I97" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2844,25 +2874,25 @@
       <c r="J97" s="13"/>
     </row>
     <row r="98" spans="4:10">
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="10">
+      <c r="E98" s="11"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="7">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
-      <c r="H98" s="10"/>
-      <c r="I98" s="7">
+      <c r="H98" s="7"/>
+      <c r="I98" s="11">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="7"/>
+      <c r="J98" s="11"/>
     </row>
     <row r="99" spans="4:10">
       <c r="D99" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2891,25 +2921,25 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="12"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="11"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="10"/>
     </row>
     <row r="102" spans="4:19">
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="11"/>
-    </row>
-    <row r="103" spans="4:19">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="10"/>
+    </row>
+    <row r="103" ht="26" spans="4:19">
       <c r="D103" s="1" t="s">
         <v>1</v>
       </c>
@@ -2925,21 +2955,21 @@
         <v>4</v>
       </c>
       <c r="J103" s="1"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="11"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="10"/>
     </row>
     <row r="104" spans="4:10">
-      <c r="D104" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="11">
-        <v>3</v>
-      </c>
-      <c r="H104" s="11"/>
+      <c r="D104" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="10">
+        <v>3</v>
+      </c>
+      <c r="H104" s="10"/>
       <c r="I104" s="13">
         <f t="shared" ref="I104:I109" si="7">G104*H104</f>
         <v>0</v>
@@ -2947,15 +2977,15 @@
       <c r="J104" s="13"/>
     </row>
     <row r="105" spans="4:10">
-      <c r="D105" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="11">
+      <c r="D105" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="10">
         <v>2</v>
       </c>
-      <c r="H105" s="11"/>
+      <c r="H105" s="10"/>
       <c r="I105" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -2963,15 +2993,15 @@
       <c r="J105" s="13"/>
     </row>
     <row r="106" spans="4:10">
-      <c r="D106" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="11">
-        <v>3</v>
-      </c>
-      <c r="H106" s="11"/>
+      <c r="D106" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="10">
+        <v>3</v>
+      </c>
+      <c r="H106" s="10"/>
       <c r="I106" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -2979,15 +3009,15 @@
       <c r="J106" s="13"/>
     </row>
     <row r="107" spans="4:10">
-      <c r="D107" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="11">
-        <v>3</v>
-      </c>
-      <c r="H107" s="11"/>
+      <c r="D107" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="10">
+        <v>3</v>
+      </c>
+      <c r="H107" s="10"/>
       <c r="I107" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -2995,15 +3025,15 @@
       <c r="J107" s="13"/>
     </row>
     <row r="108" spans="4:10">
-      <c r="D108" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="11">
-        <v>3</v>
-      </c>
-      <c r="H108" s="11"/>
+      <c r="D108" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="10">
+        <v>3</v>
+      </c>
+      <c r="H108" s="10"/>
       <c r="I108" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3011,11 +3041,11 @@
       <c r="J108" s="13"/>
     </row>
     <row r="109" spans="4:10">
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3023,25 +3053,25 @@
       <c r="J109" s="13"/>
     </row>
     <row r="110" spans="4:10">
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="10">
+      <c r="E110" s="11"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="7">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
-      <c r="H110" s="10"/>
-      <c r="I110" s="7">
+      <c r="H110" s="7"/>
+      <c r="I110" s="11">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="7"/>
+      <c r="J110" s="11"/>
     </row>
     <row r="111" spans="4:10">
       <c r="D111" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3072,15 +3102,15 @@
       <c r="J113" s="12"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-    </row>
-    <row r="115" spans="4:10">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" ht="26" spans="4:10">
       <c r="D115" s="1" t="s">
         <v>1</v>
       </c>
@@ -3098,15 +3128,15 @@
       <c r="J115" s="1"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="11">
-        <v>3</v>
-      </c>
-      <c r="H116" s="11"/>
+      <c r="D116" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="10">
+        <v>3</v>
+      </c>
+      <c r="H116" s="10"/>
       <c r="I116" s="13">
         <f t="shared" ref="I116:I121" si="8">G116*H116</f>
         <v>0</v>
@@ -3114,15 +3144,15 @@
       <c r="J116" s="13"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="11">
+      <c r="D117" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="10">
         <v>4</v>
       </c>
-      <c r="H117" s="11"/>
+      <c r="H117" s="10"/>
       <c r="I117" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3130,15 +3160,15 @@
       <c r="J117" s="13"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="11">
+      <c r="D118" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="10">
         <v>4</v>
       </c>
-      <c r="H118" s="11"/>
+      <c r="H118" s="10"/>
       <c r="I118" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3146,15 +3176,15 @@
       <c r="J118" s="13"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="11">
-        <v>3</v>
-      </c>
-      <c r="H119" s="11"/>
+      <c r="D119" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="10">
+        <v>3</v>
+      </c>
+      <c r="H119" s="10"/>
       <c r="I119" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3162,11 +3192,11 @@
       <c r="J119" s="13"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
       <c r="I120" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3174,11 +3204,11 @@
       <c r="J120" s="13"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
       <c r="I121" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3186,25 +3216,25 @@
       <c r="J121" s="13"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="10">
+      <c r="E122" s="11"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="7">
         <f>SUM(G116:G121)</f>
         <v>14</v>
       </c>
-      <c r="H122" s="10"/>
-      <c r="I122" s="7">
+      <c r="H122" s="7"/>
+      <c r="I122" s="11">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="7"/>
+      <c r="J122" s="11"/>
     </row>
     <row r="123" spans="4:10">
       <c r="D123" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -3235,15 +3265,15 @@
       <c r="J125" s="12"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-    </row>
-    <row r="127" spans="4:10">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" ht="26" spans="4:10">
       <c r="D127" s="1" t="s">
         <v>1</v>
       </c>
@@ -3261,15 +3291,15 @@
       <c r="J127" s="1"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="11">
-        <v>3</v>
-      </c>
-      <c r="H128" s="11"/>
+      <c r="D128" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="10">
+        <v>3</v>
+      </c>
+      <c r="H128" s="10"/>
       <c r="I128" s="13">
         <f t="shared" ref="I128:I133" si="9">G128*H128</f>
         <v>0</v>
@@ -3277,15 +3307,15 @@
       <c r="J128" s="13"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="11">
+      <c r="D129" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="10">
         <v>4</v>
       </c>
-      <c r="H129" s="11"/>
+      <c r="H129" s="10"/>
       <c r="I129" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3293,15 +3323,15 @@
       <c r="J129" s="13"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="11">
+      <c r="D130" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="10">
         <v>6</v>
       </c>
-      <c r="H130" s="11"/>
+      <c r="H130" s="10"/>
       <c r="I130" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3309,11 +3339,11 @@
       <c r="J130" s="13"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
       <c r="I131" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3321,11 +3351,11 @@
       <c r="J131" s="13"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
       <c r="I132" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3333,11 +3363,11 @@
       <c r="J132" s="13"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
       <c r="I133" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3345,31 +3375,31 @@
       <c r="J133" s="13"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="10">
+      <c r="E134" s="11"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="7">
         <f>SUM(G128:G133)</f>
         <v>13</v>
       </c>
-      <c r="H134" s="10"/>
-      <c r="I134" s="7">
+      <c r="H134" s="7"/>
+      <c r="I134" s="11">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="7"/>
+      <c r="J134" s="11"/>
     </row>
     <row r="135" spans="4:10">
       <c r="D135" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1">
         <f>SUM(G110,G86,G98,G74,G62,G50,G39,G27,G122,G134,G18)</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1">
@@ -3389,13 +3419,13 @@
     </row>
     <row r="137" spans="4:10">
       <c r="D137" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
       <c r="G137" s="15">
         <f>I135/G135</f>
-        <v>2.50201342281879</v>
+        <v>2.46887417218543</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
@@ -3410,8 +3440,31 @@
       <c r="I138" s="15"/>
       <c r="J138" s="15"/>
     </row>
+    <row r="139" spans="4:10">
+      <c r="D139" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18">
+        <f>SUM(G122,G134,G110,G98,G86,G74,G62,G50,G39,G27,G18)</f>
+        <v>151</v>
+      </c>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+    </row>
+    <row r="140" spans="4:10">
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="214">
+  <mergeCells count="216">
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="I11:J11"/>
@@ -3626,6 +3679,8 @@
     <mergeCell ref="D135:E136"/>
     <mergeCell ref="D137:F138"/>
     <mergeCell ref="G137:J138"/>
+    <mergeCell ref="D139:F140"/>
+    <mergeCell ref="G139:J140"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J9">
     <cfRule type="cellIs" dxfId="0" priority="17" operator="greaterThan">
@@ -3711,16 +3766,16 @@
   <sheetPr/>
   <dimension ref="D8:M138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.5"/>
   <cols>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" customFormat="1" customHeight="1" spans="4:10">
+    <row r="8" customFormat="1" ht="15" customHeight="1" spans="4:10">
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3752,7 +3807,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" customFormat="1" spans="4:10">
+    <row r="11" customFormat="1" ht="26" spans="4:10">
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
@@ -3775,10 +3830,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="8">
-        <v>3</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5">
         <v>16.8</v>
       </c>
       <c r="I12" s="13">
@@ -3793,10 +3848,10 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="4">
         <v>17.8</v>
       </c>
       <c r="I13" s="13">
@@ -3811,10 +3866,10 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="8">
-        <v>3</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4">
         <v>17.6</v>
       </c>
       <c r="I14" s="13">
@@ -3829,10 +3884,10 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="8">
-        <v>3</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
         <v>16.55</v>
       </c>
       <c r="I15" s="13">
@@ -3847,10 +3902,10 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="8">
-        <v>3</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
         <v>15</v>
       </c>
       <c r="I16" s="13">
@@ -3865,10 +3920,10 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="4">
         <v>16</v>
       </c>
       <c r="I17" s="13">
@@ -3878,25 +3933,25 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" customFormat="1" spans="4:10">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="10">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7">
+      <c r="H18" s="7"/>
+      <c r="I18" s="11">
         <f>SUM(I12:I17)</f>
         <v>265.45</v>
       </c>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" customFormat="1" customHeight="1" spans="4:10">
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" customFormat="1" ht="15" customHeight="1" spans="4:10">
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3905,7 +3960,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="12">
         <f>I27/G27</f>
-        <v>0</v>
+        <v>16.0666666666667</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="4:10">
@@ -3927,15 +3982,15 @@
       <c r="J21" s="12"/>
     </row>
     <row r="22" customFormat="1" spans="4:10">
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" customFormat="1" spans="4:10">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" customFormat="1" ht="26" spans="4:10">
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
@@ -3953,77 +4008,86 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" customFormat="1" spans="4:10">
-      <c r="D24" s="6" t="str">
+      <c r="D24" s="9" t="str">
         <f>'EXPECTED RESULTS'!D24</f>
         <v>DBMS</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="11">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10">
         <f>'EXPECTED RESULTS'!G24</f>
         <v>3</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="10">
+        <f>0.71*20</f>
+        <v>14.2</v>
+      </c>
       <c r="I24" s="13">
         <f>G24*H24</f>
-        <v>0</v>
+        <v>42.6</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" customFormat="1" spans="4:10">
-      <c r="D25" s="6" t="str">
+      <c r="D25" s="9" t="str">
         <f>'EXPECTED RESULTS'!D25</f>
         <v>Computer Maintenance</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="11">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10">
         <f>'EXPECTED RESULTS'!G25</f>
         <v>3</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="10">
+        <f>0.93*20</f>
+        <v>18.6</v>
+      </c>
       <c r="I25" s="13">
         <f>G25*H25</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
       <c r="J25" s="13"/>
     </row>
     <row r="26" customFormat="1" spans="4:10">
-      <c r="D26" s="6" t="str">
+      <c r="D26" s="9" t="str">
         <f>'EXPECTED RESULTS'!D26</f>
         <v>Digital computer Fundamentals</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="11">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10">
         <f>'EXPECTED RESULTS'!G26</f>
         <v>3</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="10">
+        <f>0.77*20</f>
+        <v>15.4</v>
+      </c>
       <c r="I26" s="13">
         <f>G26*H26</f>
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="J26" s="13"/>
     </row>
     <row r="27" customFormat="1" spans="4:10">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="10">
+      <c r="E27" s="11"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="7">
+      <c r="H27" s="7"/>
+      <c r="I27" s="11">
         <f>SUM(I24:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" customFormat="1" customHeight="1" spans="4:10">
+        <v>144.6</v>
+      </c>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" customFormat="1" ht="15" customHeight="1" spans="4:10">
       <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
@@ -4056,15 +4120,15 @@
       <c r="J30" s="12"/>
     </row>
     <row r="31" customFormat="1" spans="4:10">
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" customFormat="1" spans="4:10">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" customFormat="1" ht="26" spans="4:10">
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
@@ -4082,17 +4146,17 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" customFormat="1" spans="4:10">
-      <c r="D33" s="6" t="str">
+      <c r="D33" s="9" t="str">
         <f>'EXPECTED RESULTS'!D33</f>
-        <v>Academic English Writing</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="11">
+        <v>Multvaliable Calculus and ODE</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10">
         <f>'EXPECTED RESULTS'!G33</f>
-        <v>3</v>
-      </c>
-      <c r="H33" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H33" s="10"/>
       <c r="I33" s="13">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>0</v>
@@ -4100,17 +4164,17 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" customFormat="1" spans="4:10">
-      <c r="D34" s="6" t="str">
+      <c r="D34" s="9" t="str">
         <f>'EXPECTED RESULTS'!D34</f>
         <v>Intro to Computer Programming</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="11">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10">
         <f>'EXPECTED RESULTS'!G34</f>
         <v>4</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4118,37 +4182,37 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" customFormat="1" spans="4:13">
-      <c r="D35" s="6" t="str">
+      <c r="D35" s="9" t="str">
         <f>'EXPECTED RESULTS'!D35</f>
-        <v>Bible Doctrine</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="11">
+        <v>Software Engineering</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10">
         <f>'EXPECTED RESULTS'!G35</f>
         <v>3</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="13"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
     </row>
     <row r="36" customFormat="1" spans="4:10">
-      <c r="D36" s="6" t="str">
+      <c r="D36" s="9" t="str">
         <f>'EXPECTED RESULTS'!D36</f>
         <v>Descrptive Statistics</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="11">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10">
         <f>'EXPECTED RESULTS'!G36</f>
         <v>3</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4156,17 +4220,17 @@
       <c r="J36" s="13"/>
     </row>
     <row r="37" customFormat="1" spans="4:10">
-      <c r="D37" s="6" t="str">
+      <c r="D37" s="9" t="str">
         <f>'EXPECTED RESULTS'!D37</f>
-        <v>Management Information System</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="11">
+        <v>Computer Networks</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10">
         <f>'EXPECTED RESULTS'!G37</f>
-        <v>3</v>
-      </c>
-      <c r="H37" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H37" s="10"/>
       <c r="I37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4174,11 +4238,11 @@
       <c r="J37" s="13"/>
     </row>
     <row r="38" customFormat="1" spans="4:10">
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4186,23 +4250,23 @@
       <c r="J38" s="13"/>
     </row>
     <row r="39" customFormat="1" spans="4:10">
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="10">
+      <c r="E39" s="11"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7">
         <f>SUM(G33:G38)</f>
-        <v>16</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="7">
+        <v>18</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11">
         <f>SUM(I33:I38)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" customFormat="1" customHeight="1" spans="4:10">
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" customFormat="1" ht="15" customHeight="1" spans="4:10">
       <c r="D40" s="1" t="s">
         <v>21</v>
       </c>
@@ -4226,15 +4290,15 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" customFormat="1" spans="4:10">
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" customFormat="1" spans="4:10">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" customFormat="1" ht="26" spans="4:10">
       <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
@@ -4252,17 +4316,17 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" customFormat="1" spans="4:10">
-      <c r="D44" s="6" t="str">
+      <c r="D44" s="9" t="str">
         <f>'EXPECTED RESULTS'!D44</f>
         <v>Probability and statistic</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="11">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10">
         <f>'EXPECTED RESULTS'!G44</f>
         <v>3</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="13">
         <f t="shared" ref="I44:I49" si="2">G44*H44</f>
         <v>0</v>
@@ -4270,17 +4334,17 @@
       <c r="J44" s="13"/>
     </row>
     <row r="45" customFormat="1" spans="4:10">
-      <c r="D45" s="6" t="str">
+      <c r="D45" s="9" t="str">
         <f>'EXPECTED RESULTS'!D45</f>
         <v>Database Development with PL/SQL</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="11">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10">
         <f>'EXPECTED RESULTS'!G45</f>
         <v>4</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4288,17 +4352,17 @@
       <c r="J45" s="13"/>
     </row>
     <row r="46" customFormat="1" spans="4:10">
-      <c r="D46" s="6" t="str">
+      <c r="D46" s="9" t="str">
         <f>'EXPECTED RESULTS'!D46</f>
         <v>Programming with C</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="11">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10">
         <f>'EXPECTED RESULTS'!G46</f>
         <v>4</v>
       </c>
-      <c r="H46" s="11"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4306,17 +4370,17 @@
       <c r="J46" s="13"/>
     </row>
     <row r="47" customFormat="1" spans="4:10">
-      <c r="D47" s="6" t="str">
+      <c r="D47" s="9" t="str">
         <f>'EXPECTED RESULTS'!D47</f>
         <v>Computer Networks</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="11">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10">
         <f>'EXPECTED RESULTS'!G47</f>
         <v>4</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4327,7 +4391,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4335,11 +4399,11 @@
       <c r="J48" s="13"/>
     </row>
     <row r="49" customFormat="1" spans="4:10">
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4347,23 +4411,23 @@
       <c r="J49" s="13"/>
     </row>
     <row r="50" customFormat="1" spans="4:10">
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="10">
+      <c r="E50" s="11"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7">
         <f>SUM(G44:G49)</f>
         <v>15</v>
       </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="7">
+      <c r="H50" s="7"/>
+      <c r="I50" s="11">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" customFormat="1" customHeight="1" spans="4:10">
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" customFormat="1" ht="15" customHeight="1" spans="4:10">
       <c r="D51" s="1" t="str">
         <f>'EXPECTED RESULTS'!D51</f>
         <v>SEMESTER-5-SUMMER</v>
@@ -4397,15 +4461,15 @@
       <c r="J53" s="12"/>
     </row>
     <row r="54" customFormat="1" spans="4:10">
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" customFormat="1" spans="4:10">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" customFormat="1" ht="26" spans="4:10">
       <c r="D55" s="1" t="s">
         <v>1</v>
       </c>
@@ -4423,17 +4487,17 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" customFormat="1" spans="4:10">
-      <c r="D56" s="6" t="str">
+      <c r="D56" s="9" t="str">
         <f>'EXPECTED RESULTS'!D56</f>
         <v>English Phonology</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="11">
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10">
         <f>'EXPECTED RESULTS'!G56</f>
         <v>3</v>
       </c>
-      <c r="H56" s="11"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="13">
         <f t="shared" ref="I56:I61" si="3">G56*H56</f>
         <v>0</v>
@@ -4441,17 +4505,17 @@
       <c r="J56" s="13"/>
     </row>
     <row r="57" customFormat="1" spans="4:10">
-      <c r="D57" s="6" t="str">
+      <c r="D57" s="9" t="str">
         <f>'EXPECTED RESULTS'!D57</f>
         <v>Web Design</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="11">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10">
         <f>'EXPECTED RESULTS'!G57</f>
         <v>3</v>
       </c>
-      <c r="H57" s="11"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4459,17 +4523,17 @@
       <c r="J57" s="13"/>
     </row>
     <row r="58" customFormat="1" spans="4:10">
-      <c r="D58" s="6" t="str">
+      <c r="D58" s="9" t="str">
         <f>'EXPECTED RESULTS'!D58</f>
         <v>Multvaliable Calculus and ODE</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="11">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10">
         <f>'EXPECTED RESULTS'!G58</f>
         <v>4</v>
       </c>
-      <c r="H58" s="11"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4477,11 +4541,11 @@
       <c r="J58" s="13"/>
     </row>
     <row r="59" customFormat="1" spans="4:10">
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4489,11 +4553,11 @@
       <c r="J59" s="13"/>
     </row>
     <row r="60" customFormat="1" spans="4:10">
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4501,11 +4565,11 @@
       <c r="J60" s="13"/>
     </row>
     <row r="61" customFormat="1" spans="4:10">
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4513,25 +4577,25 @@
       <c r="J61" s="13"/>
     </row>
     <row r="62" customFormat="1" spans="4:10">
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="10">
+      <c r="E62" s="11"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7">
         <f>SUM(G56:G61)</f>
         <v>10</v>
       </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="7">
+      <c r="H62" s="7"/>
+      <c r="I62" s="11">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" customFormat="1" customHeight="1" spans="4:10">
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" customFormat="1" ht="15" customHeight="1" spans="4:10">
       <c r="D63" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4562,15 +4626,15 @@
       <c r="J65" s="12"/>
     </row>
     <row r="66" customFormat="1" spans="4:10">
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" customFormat="1" spans="4:10">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" customFormat="1" ht="26" spans="4:10">
       <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
@@ -4588,17 +4652,17 @@
       <c r="J67" s="1"/>
     </row>
     <row r="68" customFormat="1" spans="4:10">
-      <c r="D68" s="6" t="str">
+      <c r="D68" s="9" t="str">
         <f>'EXPECTED RESULTS'!D68</f>
         <v>English Proficiency I</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="11">
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10">
         <f>'EXPECTED RESULTS'!G68</f>
         <v>3</v>
       </c>
-      <c r="H68" s="11"/>
+      <c r="H68" s="10"/>
       <c r="I68" s="13">
         <f t="shared" ref="I68:I73" si="4">G68*H68</f>
         <v>0</v>
@@ -4606,17 +4670,17 @@
       <c r="J68" s="13"/>
     </row>
     <row r="69" customFormat="1" spans="4:10">
-      <c r="D69" s="6" t="str">
+      <c r="D69" s="9" t="str">
         <f>'EXPECTED RESULTS'!D69</f>
         <v>Data Structure and Algorthim</v>
       </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="11">
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10">
         <f>'EXPECTED RESULTS'!G69</f>
         <v>4</v>
       </c>
-      <c r="H69" s="11"/>
+      <c r="H69" s="10"/>
       <c r="I69" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4624,17 +4688,17 @@
       <c r="J69" s="13"/>
     </row>
     <row r="70" customFormat="1" spans="4:10">
-      <c r="D70" s="6" t="str">
+      <c r="D70" s="9" t="str">
         <f>'EXPECTED RESULTS'!D70</f>
         <v>Theory of Computation</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="11">
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10">
         <f>'EXPECTED RESULTS'!G70</f>
         <v>3</v>
       </c>
-      <c r="H70" s="11"/>
+      <c r="H70" s="10"/>
       <c r="I70" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4642,17 +4706,17 @@
       <c r="J70" s="13"/>
     </row>
     <row r="71" customFormat="1" spans="4:10">
-      <c r="D71" s="6" t="str">
+      <c r="D71" s="9" t="str">
         <f>'EXPECTED RESULTS'!D71</f>
         <v>Software Engineering</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="11">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10">
         <f>'EXPECTED RESULTS'!G71</f>
         <v>3</v>
       </c>
-      <c r="H71" s="11"/>
+      <c r="H71" s="10"/>
       <c r="I71" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4660,17 +4724,17 @@
       <c r="J71" s="13"/>
     </row>
     <row r="72" customFormat="1" spans="4:10">
-      <c r="D72" s="6" t="str">
+      <c r="D72" s="9" t="str">
         <f>'EXPECTED RESULTS'!D72</f>
         <v>Emerging technology</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="11">
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="10">
         <f>'EXPECTED RESULTS'!G72</f>
         <v>3</v>
       </c>
-      <c r="H72" s="11"/>
+      <c r="H72" s="10"/>
       <c r="I72" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4678,11 +4742,11 @@
       <c r="J72" s="13"/>
     </row>
     <row r="73" customFormat="1" spans="4:10">
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4690,25 +4754,25 @@
       <c r="J73" s="13"/>
     </row>
     <row r="74" customFormat="1" spans="4:10">
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="10">
+      <c r="E74" s="11"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="7">
         <f>SUM(G68:G73)</f>
         <v>16</v>
       </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="7">
+      <c r="H74" s="7"/>
+      <c r="I74" s="11">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="7"/>
-    </row>
-    <row r="75" customFormat="1" customHeight="1" spans="4:10">
+      <c r="J74" s="11"/>
+    </row>
+    <row r="75" customFormat="1" ht="15" customHeight="1" spans="4:10">
       <c r="D75" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4739,15 +4803,15 @@
       <c r="J77" s="12"/>
     </row>
     <row r="78" customFormat="1" spans="4:10">
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" customFormat="1" spans="4:10">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" customFormat="1" ht="26" spans="4:10">
       <c r="D79" s="1" t="s">
         <v>1</v>
       </c>
@@ -4765,17 +4829,17 @@
       <c r="J79" s="1"/>
     </row>
     <row r="80" customFormat="1" spans="4:10">
-      <c r="D80" s="6" t="str">
+      <c r="D80" s="9" t="str">
         <f>'EXPECTED RESULTS'!D80</f>
         <v>English Proficiency II</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="11">
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="10">
         <f>'EXPECTED RESULTS'!G80</f>
         <v>3</v>
       </c>
-      <c r="H80" s="11"/>
+      <c r="H80" s="10"/>
       <c r="I80" s="13">
         <f t="shared" ref="I80:I85" si="5">G80*H80</f>
         <v>0</v>
@@ -4783,17 +4847,17 @@
       <c r="J80" s="13"/>
     </row>
     <row r="81" customFormat="1" spans="4:10">
-      <c r="D81" s="6" t="str">
+      <c r="D81" s="9" t="str">
         <f>'EXPECTED RESULTS'!D81</f>
         <v>Java Programming</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="11">
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="10">
         <f>'EXPECTED RESULTS'!G81</f>
         <v>4</v>
       </c>
-      <c r="H81" s="11"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4801,17 +4865,17 @@
       <c r="J81" s="13"/>
     </row>
     <row r="82" customFormat="1" spans="4:10">
-      <c r="D82" s="6" t="str">
+      <c r="D82" s="9" t="str">
         <f>'EXPECTED RESULTS'!D82</f>
         <v>Health Principles</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="11">
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="10">
         <f>'EXPECTED RESULTS'!G82</f>
         <v>2</v>
       </c>
-      <c r="H82" s="11"/>
+      <c r="H82" s="10"/>
       <c r="I82" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4819,17 +4883,17 @@
       <c r="J82" s="13"/>
     </row>
     <row r="83" customFormat="1" spans="4:10">
-      <c r="D83" s="6" t="str">
+      <c r="D83" s="9" t="str">
         <f>'EXPECTED RESULTS'!D83</f>
         <v>Software Project Management</v>
       </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="11">
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="10">
         <f>'EXPECTED RESULTS'!G83</f>
         <v>3</v>
       </c>
-      <c r="H83" s="11"/>
+      <c r="H83" s="10"/>
       <c r="I83" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4837,17 +4901,17 @@
       <c r="J83" s="13"/>
     </row>
     <row r="84" customFormat="1" spans="4:10">
-      <c r="D84" s="6" t="str">
+      <c r="D84" s="9" t="str">
         <f>'EXPECTED RESULTS'!D84</f>
         <v>Object Oriented Programming</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="11">
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="10">
         <f>'EXPECTED RESULTS'!G84</f>
         <v>4</v>
       </c>
-      <c r="H84" s="11"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4855,11 +4919,11 @@
       <c r="J84" s="13"/>
     </row>
     <row r="85" customFormat="1" spans="4:10">
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4867,23 +4931,23 @@
       <c r="J85" s="13"/>
     </row>
     <row r="86" customFormat="1" spans="4:10">
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="10">
+      <c r="E86" s="11"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="7">
         <f>SUM(G80:G85)</f>
         <v>16</v>
       </c>
-      <c r="H86" s="10"/>
-      <c r="I86" s="7">
+      <c r="H86" s="7"/>
+      <c r="I86" s="11">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87" customFormat="1" customHeight="1" spans="4:10">
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" customFormat="1" ht="15" customHeight="1" spans="4:10">
       <c r="D87" s="1" t="str">
         <f>'EXPECTED RESULTS'!D87</f>
         <v>SEMESTER-8-SUMMER</v>
@@ -4917,15 +4981,15 @@
       <c r="J89" s="12"/>
     </row>
     <row r="90" customFormat="1" spans="4:10">
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" customFormat="1" spans="4:10">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+    </row>
+    <row r="91" customFormat="1" ht="26" spans="4:10">
       <c r="D91" s="1" t="s">
         <v>1</v>
       </c>
@@ -4943,17 +5007,17 @@
       <c r="J91" s="1"/>
     </row>
     <row r="92" customFormat="1" spans="4:10">
-      <c r="D92" s="6" t="str">
+      <c r="D92" s="9" t="str">
         <f>'EXPECTED RESULTS'!D92</f>
         <v>Big Data</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="11">
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="10">
         <f>'EXPECTED RESULTS'!G92</f>
         <v>3</v>
       </c>
-      <c r="H92" s="11"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="13">
         <f t="shared" ref="I92:I97" si="6">G92*H92</f>
         <v>0</v>
@@ -4961,17 +5025,17 @@
       <c r="J92" s="13"/>
     </row>
     <row r="93" customFormat="1" spans="4:10">
-      <c r="D93" s="6" t="str">
+      <c r="D93" s="9" t="str">
         <f>'EXPECTED RESULTS'!D93</f>
         <v>Operating systems</v>
       </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="11">
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="10">
         <f>'EXPECTED RESULTS'!G93</f>
         <v>4</v>
       </c>
-      <c r="H93" s="11"/>
+      <c r="H93" s="10"/>
       <c r="I93" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4979,17 +5043,17 @@
       <c r="J93" s="13"/>
     </row>
     <row r="94" customFormat="1" spans="4:10">
-      <c r="D94" s="6" t="str">
+      <c r="D94" s="9" t="str">
         <f>'EXPECTED RESULTS'!D94</f>
         <v>Best Progr.Practice Design Patterns</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="11">
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="10">
         <f>'EXPECTED RESULTS'!G94</f>
         <v>3</v>
       </c>
-      <c r="H94" s="11"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4997,11 +5061,11 @@
       <c r="J94" s="13"/>
     </row>
     <row r="95" customFormat="1" spans="4:10">
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
       <c r="I95" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -5009,11 +5073,11 @@
       <c r="J95" s="13"/>
     </row>
     <row r="96" customFormat="1" spans="4:10">
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
       <c r="I96" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -5021,11 +5085,11 @@
       <c r="J96" s="13"/>
     </row>
     <row r="97" customFormat="1" spans="4:10">
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
       <c r="I97" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -5033,25 +5097,25 @@
       <c r="J97" s="13"/>
     </row>
     <row r="98" customFormat="1" spans="4:10">
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="10">
+      <c r="E98" s="11"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="7">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
-      <c r="H98" s="10"/>
-      <c r="I98" s="7">
+      <c r="H98" s="7"/>
+      <c r="I98" s="11">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="7"/>
+      <c r="J98" s="11"/>
     </row>
     <row r="99" customFormat="1" spans="4:10">
       <c r="D99" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5082,15 +5146,15 @@
       <c r="J101" s="12"/>
     </row>
     <row r="102" customFormat="1" spans="4:10">
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-    </row>
-    <row r="103" customFormat="1" spans="4:10">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+    </row>
+    <row r="103" customFormat="1" ht="26" spans="4:10">
       <c r="D103" s="1" t="s">
         <v>1</v>
       </c>
@@ -5108,17 +5172,17 @@
       <c r="J103" s="1"/>
     </row>
     <row r="104" customFormat="1" spans="4:10">
-      <c r="D104" s="6" t="str">
+      <c r="D104" s="9" t="str">
         <f>'EXPECTED RESULTS'!D104</f>
         <v>Introduction to linux</v>
       </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="11">
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="10">
         <f>'EXPECTED RESULTS'!G104</f>
         <v>3</v>
       </c>
-      <c r="H104" s="11"/>
+      <c r="H104" s="10"/>
       <c r="I104" s="13">
         <f t="shared" ref="I104:I109" si="7">G104*H104</f>
         <v>0</v>
@@ -5126,17 +5190,17 @@
       <c r="J104" s="13"/>
     </row>
     <row r="105" customFormat="1" spans="4:10">
-      <c r="D105" s="6" t="str">
+      <c r="D105" s="9" t="str">
         <f>'EXPECTED RESULTS'!D105</f>
         <v>Philosophy Science and Religion</v>
       </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="11">
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="10">
         <f>'EXPECTED RESULTS'!G105</f>
         <v>2</v>
       </c>
-      <c r="H105" s="11"/>
+      <c r="H105" s="10"/>
       <c r="I105" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5144,17 +5208,17 @@
       <c r="J105" s="13"/>
     </row>
     <row r="106" customFormat="1" spans="4:10">
-      <c r="D106" s="6" t="str">
+      <c r="D106" s="9" t="str">
         <f>'EXPECTED RESULTS'!D106</f>
         <v>Software Security</v>
       </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="11">
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="10">
         <f>'EXPECTED RESULTS'!G106</f>
         <v>3</v>
       </c>
-      <c r="H106" s="11"/>
+      <c r="H106" s="10"/>
       <c r="I106" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5162,17 +5226,17 @@
       <c r="J106" s="13"/>
     </row>
     <row r="107" customFormat="1" spans="4:10">
-      <c r="D107" s="6" t="str">
+      <c r="D107" s="9" t="str">
         <f>'EXPECTED RESULTS'!D107</f>
         <v>Introduction to Big Data</v>
       </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="11">
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="10">
         <f>'EXPECTED RESULTS'!G107</f>
         <v>3</v>
       </c>
-      <c r="H107" s="11"/>
+      <c r="H107" s="10"/>
       <c r="I107" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5180,17 +5244,17 @@
       <c r="J107" s="13"/>
     </row>
     <row r="108" customFormat="1" spans="4:10">
-      <c r="D108" s="6" t="str">
+      <c r="D108" s="9" t="str">
         <f>'EXPECTED RESULTS'!D108</f>
         <v>Software Quality Assurance</v>
       </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="11">
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="10">
         <f>'EXPECTED RESULTS'!G108</f>
         <v>3</v>
       </c>
-      <c r="H108" s="11"/>
+      <c r="H108" s="10"/>
       <c r="I108" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5198,11 +5262,11 @@
       <c r="J108" s="13"/>
     </row>
     <row r="109" customFormat="1" spans="4:10">
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5210,25 +5274,25 @@
       <c r="J109" s="13"/>
     </row>
     <row r="110" customFormat="1" spans="4:10">
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="10">
+      <c r="E110" s="11"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="7">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
-      <c r="H110" s="10"/>
-      <c r="I110" s="7">
+      <c r="H110" s="7"/>
+      <c r="I110" s="11">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="7"/>
+      <c r="J110" s="11"/>
     </row>
     <row r="111" customFormat="1" spans="4:10">
       <c r="D111" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5259,15 +5323,15 @@
       <c r="J113" s="12"/>
     </row>
     <row r="114" customFormat="1" spans="4:10">
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-    </row>
-    <row r="115" spans="4:10">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" ht="26" spans="4:10">
       <c r="D115" s="1" t="s">
         <v>1</v>
       </c>
@@ -5285,11 +5349,11 @@
       <c r="J115" s="1"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
       <c r="I116" s="13">
         <f t="shared" ref="I116:I121" si="8">G116*H116</f>
         <v>0</v>
@@ -5297,17 +5361,17 @@
       <c r="J116" s="13"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="6" t="str">
+      <c r="D117" s="9" t="str">
         <f>'EXPECTED RESULTS'!D117</f>
         <v>Web Technology and Internet</v>
       </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="11">
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="10">
         <f>'EXPECTED RESULTS'!G117</f>
         <v>4</v>
       </c>
-      <c r="H117" s="11"/>
+      <c r="H117" s="10"/>
       <c r="I117" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5315,17 +5379,17 @@
       <c r="J117" s="13"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="6" t="str">
+      <c r="D118" s="9" t="str">
         <f>'EXPECTED RESULTS'!D118</f>
         <v>Mobile Programing</v>
       </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="11">
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="10">
         <f>'EXPECTED RESULTS'!G118</f>
         <v>4</v>
       </c>
-      <c r="H118" s="11"/>
+      <c r="H118" s="10"/>
       <c r="I118" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5333,17 +5397,17 @@
       <c r="J118" s="13"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="6" t="str">
+      <c r="D119" s="9" t="str">
         <f>'EXPECTED RESULTS'!D119</f>
         <v>Probability and statistic &amp; Reliability</v>
       </c>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="11">
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="10">
         <f>'EXPECTED RESULTS'!G119</f>
         <v>3</v>
       </c>
-      <c r="H119" s="11"/>
+      <c r="H119" s="10"/>
       <c r="I119" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5351,11 +5415,11 @@
       <c r="J119" s="13"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
       <c r="I120" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5363,11 +5427,11 @@
       <c r="J120" s="13"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
       <c r="I121" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5375,25 +5439,25 @@
       <c r="J121" s="13"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="10">
+      <c r="E122" s="11"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="7">
         <f>SUM(G116:G121)</f>
         <v>11</v>
       </c>
-      <c r="H122" s="10"/>
-      <c r="I122" s="7">
+      <c r="H122" s="7"/>
+      <c r="I122" s="11">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="7"/>
+      <c r="J122" s="11"/>
     </row>
     <row r="123" spans="4:10">
       <c r="D123" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5424,15 +5488,15 @@
       <c r="J125" s="12"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-    </row>
-    <row r="127" spans="4:10">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" ht="26" spans="4:10">
       <c r="D127" s="1" t="s">
         <v>1</v>
       </c>
@@ -5450,11 +5514,11 @@
       <c r="J127" s="1"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
       <c r="I128" s="13">
         <f t="shared" ref="I128:I133" si="9">G128*H128</f>
         <v>0</v>
@@ -5462,17 +5526,17 @@
       <c r="J128" s="13"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="6" t="str">
+      <c r="D129" s="9" t="str">
         <f>'EXPECTED RESULTS'!D129</f>
         <v>Internship</v>
       </c>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="11">
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="10">
         <f>'EXPECTED RESULTS'!G129</f>
         <v>4</v>
       </c>
-      <c r="H129" s="11"/>
+      <c r="H129" s="10"/>
       <c r="I129" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5480,17 +5544,17 @@
       <c r="J129" s="13"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="6" t="str">
+      <c r="D130" s="9" t="str">
         <f>'EXPECTED RESULTS'!D130</f>
         <v>Final Year Project</v>
       </c>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="11">
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="10">
         <f>'EXPECTED RESULTS'!G130</f>
         <v>6</v>
       </c>
-      <c r="H130" s="11"/>
+      <c r="H130" s="10"/>
       <c r="I130" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5498,11 +5562,11 @@
       <c r="J130" s="13"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
       <c r="I131" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5510,11 +5574,11 @@
       <c r="J131" s="13"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
       <c r="I132" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5522,11 +5586,11 @@
       <c r="J132" s="13"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
       <c r="I133" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5534,36 +5598,36 @@
       <c r="J133" s="13"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="10">
+      <c r="E134" s="11"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="7">
         <f>SUM(G128:G133)</f>
         <v>10</v>
       </c>
-      <c r="H134" s="10"/>
-      <c r="I134" s="7">
+      <c r="H134" s="7"/>
+      <c r="I134" s="11">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="7"/>
+      <c r="J134" s="11"/>
     </row>
     <row r="135" spans="4:10">
       <c r="D135" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1">
         <f>SUM(G134,G122,G110,G98,G86,G74,G62,G50,G39,G27,G18,)</f>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1">
         <f>SUM(I134,I122,I110,I98,I86,,I74,I62,I50,I39,I27,I18)</f>
-        <v>265.45</v>
+        <v>410.05</v>
       </c>
       <c r="J135" s="1"/>
     </row>
@@ -5578,13 +5642,13 @@
     </row>
     <row r="137" spans="4:10">
       <c r="D137" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
       <c r="G137" s="15">
         <f>I135/G135</f>
-        <v>1.85629370629371</v>
+        <v>2.82793103448276</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
@@ -5897,43 +5961,43 @@
   <sheetPr/>
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="38.2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5943,12 +6007,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -5958,142 +6022,142 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -6103,62 +6167,62 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
